--- a/Overall_2023.xlsx
+++ b/Overall_2023.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="1" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="1" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Memo + TWI'!$A$2:$AE$160</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'TWI'!$A$1:$Q$393</definedName>
   </definedNames>
-  <calcPr calcId="191028" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -25,7 +25,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -89,7 +89,7 @@
       <sz val="18"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -120,8 +120,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -197,36 +207,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -375,10 +355,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
-      </left>
-      <right/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -405,30 +396,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -534,19 +501,19 @@
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -564,10 +531,10 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -587,23 +554,17 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,29 +680,6 @@
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
-      <txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:t>None</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </txPr>
     </title>
     <plotArea>
       <layout/>
@@ -1025,29 +963,6 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:r>
-                <a:t>None</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </txPr>
         </title>
         <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
@@ -1084,7 +999,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1151,29 +1066,6 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:r>
-                <a:t>None</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </txPr>
         </title>
         <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
@@ -1204,7 +1096,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1242,7 +1134,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t>None</a:t>
+            <a:t/>
           </a:r>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -1276,10 +1168,12 @@
       <tx>
         <rich>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
+            <a:endParaRPr/>
           </a:p>
         </rich>
       </tx>
@@ -1291,29 +1185,6 @@
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
-      <txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:t>None</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </txPr>
     </title>
     <plotArea>
       <layout>
@@ -1485,7 +1356,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1547,7 +1418,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1585,10 +1456,12 @@
       <tx>
         <rich>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
+            <a:endParaRPr/>
           </a:p>
         </rich>
       </tx>
@@ -1600,29 +1473,6 @@
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
-      <txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:t>None</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </txPr>
     </title>
     <plotArea>
       <layout/>
@@ -1806,7 +1656,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1868,7 +1718,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1897,132 +1747,6 @@
     </a:ln>
   </spPr>
 </chartSpace>
-</file>
-
-<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>tc={F1DF5E3E-620B-42B9-801C-F30E27CDB157}</author>
-    <author>tc={C5E5EDF6-843E-48E8-A209-DBA2DD323C98}</author>
-    <author>tc={B852B34F-97BF-4CF5-B4DB-167DA7DB0754}</author>
-    <author>tc={20AB2274-4D32-4F35-A273-55A91C55FBE6}</author>
-    <author>tc={E355FD54-4243-45A2-8068-78D0051B865E}</author>
-    <author>tc={E28C8B58-A5D2-415D-9085-1C7C41C0B2B3}</author>
-  </authors>
-  <commentList>
-    <comment ref="M24" authorId="0" shapeId="0">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Mix changeover</t>
-      </text>
-    </comment>
-    <comment ref="M27" authorId="1" shapeId="0">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Mix changeover</t>
-      </text>
-    </comment>
-    <comment ref="M29" authorId="2" shapeId="0">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Mix changeover</t>
-      </text>
-    </comment>
-    <comment ref="M79" authorId="3" shapeId="0">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Mix changeover</t>
-      </text>
-    </comment>
-    <comment ref="M109" authorId="4" shapeId="0">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Mix change over</t>
-      </text>
-    </comment>
-    <comment ref="M111" authorId="5" shapeId="0">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Mix changeover</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments/comment2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>tc={42830C16-71B7-4538-A2B0-17C135160041}</author>
-    <author>tc={2BDD5C4E-DF7A-4035-8E55-31A54731050F}</author>
-    <author>tc={0BE670F2-C667-451E-B63C-A66C98DA2528}</author>
-    <author>tc={59D4F9D6-832C-4449-B712-E98F1864062B}</author>
-    <author>tc={84329EA6-FFFC-436C-ABE6-9FCC3179CA7F}</author>
-    <author>tc={2755DCA3-E9D0-416F-A21E-4DA4602D7E8D}</author>
-  </authors>
-  <commentList>
-    <comment ref="M23" authorId="0" shapeId="0">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Mix changeover</t>
-      </text>
-    </comment>
-    <comment ref="M26" authorId="1" shapeId="0">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Mix changeover</t>
-      </text>
-    </comment>
-    <comment ref="M28" authorId="2" shapeId="0">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Mix changeover</t>
-      </text>
-    </comment>
-    <comment ref="M78" authorId="3" shapeId="0">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Mix changeover</t>
-      </text>
-    </comment>
-    <comment ref="M108" authorId="4" shapeId="0">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Mix change over</t>
-      </text>
-    </comment>
-    <comment ref="M110" authorId="5" shapeId="0">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Mix changeover</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2428,7 +2152,7 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.5" outlineLevelCol="0"/>
   <cols>
     <col width="10.54296875" bestFit="1" customWidth="1" style="52" min="3" max="3"/>
     <col width="10.54296875" customWidth="1" style="52" min="4" max="4"/>
@@ -2639,7 +2363,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.5" outlineLevelCol="0"/>
   <cols>
     <col width="13.1796875" bestFit="1" customWidth="1" style="52" min="2" max="2"/>
     <col width="22.7265625" customWidth="1" style="52" min="3" max="4"/>
@@ -2804,13 +2528,13 @@
   <dimension ref="A1:AI160"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="Y39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="Y87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AX91" sqref="AX91"/>
+      <selection pane="bottomRight" activeCell="AF97" sqref="AF97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="28.54296875" customWidth="1" style="52" min="1" max="1"/>
     <col hidden="1" width="19.7265625" customWidth="1" style="52" min="2" max="2"/>
@@ -2835,7 +2559,7 @@
       <c r="E1" s="33" t="n"/>
       <c r="F1" s="35" t="n"/>
       <c r="G1" s="36" t="n"/>
-      <c r="H1" s="59" t="inlineStr">
+      <c r="H1" s="62" t="inlineStr">
         <is>
           <t>AOI</t>
         </is>
@@ -2845,7 +2569,7 @@
       <c r="K1" s="63" t="n"/>
       <c r="L1" s="64" t="n"/>
       <c r="M1" s="37" t="n"/>
-      <c r="N1" s="59" t="inlineStr">
+      <c r="N1" s="62" t="inlineStr">
         <is>
           <t>Flowline</t>
         </is>
@@ -2860,7 +2584,7 @@
       <c r="V1" s="64" t="n"/>
       <c r="W1" s="33" t="n"/>
     </row>
-    <row r="2" ht="46.5" customFormat="1" customHeight="1" s="38">
+    <row r="2" ht="31" customFormat="1" customHeight="1" s="38">
       <c r="A2" s="33" t="inlineStr">
         <is>
           <t>Memo / TWI No.</t>
@@ -4407,7 +4131,7 @@
       <c r="U31" s="26" t="n"/>
       <c r="V31" s="28" t="n"/>
     </row>
-    <row r="32" ht="62.5" customFormat="1" customHeight="1" s="22">
+    <row r="32" ht="37.5" customFormat="1" customHeight="1" s="22">
       <c r="A32" s="23" t="inlineStr">
         <is>
           <t>HcP-MSE3-MO-23-01-03</t>
@@ -5123,7 +4847,7 @@
         </is>
       </c>
     </row>
-    <row r="47" ht="37.5" customFormat="1" customHeight="1" s="22">
+    <row r="47" ht="25" customFormat="1" customHeight="1" s="22">
       <c r="A47" s="23" t="inlineStr">
         <is>
           <t>HcP-MSE3-MO-23-08-05</t>
@@ -5725,7 +5449,7 @@
         </is>
       </c>
     </row>
-    <row r="59" ht="37.5" customFormat="1" customHeight="1" s="22">
+    <row r="59" ht="25" customFormat="1" customHeight="1" s="22">
       <c r="A59" s="23" t="inlineStr">
         <is>
           <t>HcP-MSE3-MO-23-11-06</t>
@@ -10041,7 +9765,7 @@
       <c r="U150" s="26" t="n"/>
       <c r="V150" s="28" t="n"/>
     </row>
-    <row r="151" ht="37.5" customFormat="1" customHeight="1" s="22">
+    <row r="151" ht="25" customFormat="1" customHeight="1" s="22">
       <c r="A151" s="23" t="inlineStr">
         <is>
           <t>HcP-TWI-2023-02-037</t>
@@ -10526,7 +10250,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
@@ -10539,7 +10262,7 @@
   <dimension ref="A1:Y159"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L201" sqref="L201"/>
+      <selection activeCell="J180" sqref="J180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.5"/>
@@ -18165,7 +17888,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId5"/>
-  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
@@ -18175,13 +17897,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K393"/>
+  <dimension ref="A1:AI393"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R55" sqref="R55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.5" outlineLevelCol="0"/>
   <cols>
     <col width="19.7265625" customWidth="1" style="52" min="2" max="2"/>
     <col width="50.453125" customWidth="1" style="52" min="3" max="3"/>
@@ -18190,6 +17912,7 @@
     <col width="14" customWidth="1" style="52" min="6" max="6"/>
     <col width="13.26953125" customWidth="1" style="52" min="7" max="7"/>
     <col width="17.54296875" customWidth="1" style="52" min="8" max="8"/>
+    <col width="16.81640625" bestFit="1" customWidth="1" style="60" min="9" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -18228,8 +17951,143 @@
           <t>Project</t>
         </is>
       </c>
-    </row>
-    <row r="2">
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Duration</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Jan</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Feb</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Mar</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Apr</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Jun</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Aug</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Sep</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Oct</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Nov</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Dec</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Jan</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Feb</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Mar</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Apr</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>Jun</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>Aug</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>Sep</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>Oct</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>Nov</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>Dec</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" hidden="1" s="52">
       <c r="A2" t="n">
         <v>2024</v>
       </c>
@@ -18253,13 +18111,13 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3.12)</t>
         </is>
       </c>
-      <c r="I2" s="65" t="n"/>
-      <c r="J2" s="65" t="n"/>
+      <c r="I2" s="59" t="n"/>
+      <c r="J2" s="59" t="n"/>
       <c r="K2" t="n">
         <v/>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="1" s="52">
       <c r="A3" t="n">
         <v>2024</v>
       </c>
@@ -18278,8 +18136,8 @@
           <t>Thông báo thử nghiệm Fast Dry EE1332 tại AL06</t>
         </is>
       </c>
-      <c r="I3" s="65" t="n"/>
-      <c r="J3" s="65" t="n"/>
+      <c r="I3" s="59" t="n"/>
+      <c r="J3" s="59" t="n"/>
       <c r="K3" t="n">
         <v/>
       </c>
@@ -18318,17 +18176,21 @@
           <t>S-CIP</t>
         </is>
       </c>
-      <c r="I4" s="65" t="n">
+      <c r="I4" s="60" t="n">
         <v>45352</v>
       </c>
-      <c r="J4" s="65" t="n">
+      <c r="J4" s="60" t="n">
         <v>45473</v>
       </c>
       <c r="K4" t="n">
         <v>121</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="N4" s="65" t="n"/>
+      <c r="O4" s="65" t="n"/>
+      <c r="P4" s="65" t="n"/>
+      <c r="Q4" s="65" t="n"/>
+    </row>
+    <row r="5" hidden="1" s="52">
       <c r="A5" t="n">
         <v>2024</v>
       </c>
@@ -18352,13 +18214,13 @@
           <t>Vo Thien Tam (HcP/MFE3.12)</t>
         </is>
       </c>
-      <c r="I5" s="65" t="n"/>
-      <c r="J5" s="65" t="n"/>
+      <c r="I5" s="59" t="n"/>
+      <c r="J5" s="59" t="n"/>
       <c r="K5" t="n">
         <v/>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="1" s="52">
       <c r="A6" t="n">
         <v>2024</v>
       </c>
@@ -18382,8 +18244,8 @@
           <t>Bui Chau Ngoc (HcP/MFE3.11)</t>
         </is>
       </c>
-      <c r="I6" s="65" t="n"/>
-      <c r="J6" s="65" t="n"/>
+      <c r="I6" s="59" t="n"/>
+      <c r="J6" s="59" t="n"/>
       <c r="K6" t="n">
         <v/>
       </c>
@@ -18427,15 +18289,22 @@
           <t>concession at HcP</t>
         </is>
       </c>
-      <c r="I7" s="65" t="n">
+      <c r="I7" s="60" t="n">
         <v>45205</v>
       </c>
-      <c r="J7" s="65" t="n">
+      <c r="J7" s="60" t="n">
         <v>45388</v>
       </c>
       <c r="K7" t="n">
         <v>183</v>
       </c>
+      <c r="U7" s="65" t="n"/>
+      <c r="V7" s="65" t="n"/>
+      <c r="W7" s="65" t="n"/>
+      <c r="X7" s="65" t="n"/>
+      <c r="Y7" s="65" t="n"/>
+      <c r="Z7" s="65" t="n"/>
+      <c r="AA7" s="65" t="n"/>
     </row>
     <row r="8" hidden="1" s="52">
       <c r="A8" t="n">
@@ -18461,8 +18330,8 @@
           <t>Bui Chau Ngoc (HcP/MFE3.11)</t>
         </is>
       </c>
-      <c r="I8" s="65" t="n"/>
-      <c r="J8" s="65" t="n"/>
+      <c r="I8" s="59" t="n"/>
+      <c r="J8" s="59" t="n"/>
       <c r="K8" t="n">
         <v/>
       </c>
@@ -18486,8 +18355,8 @@
           <t>Hướng dẫn nhân viên Assembly làm việc với hệ thống AI Camera AL13</t>
         </is>
       </c>
-      <c r="I9" s="65" t="n"/>
-      <c r="J9" s="65" t="n"/>
+      <c r="I9" s="59" t="n"/>
+      <c r="J9" s="59" t="n"/>
       <c r="K9" t="n">
         <v/>
       </c>
@@ -18516,8 +18385,8 @@
           <t>Nguyen Thi Kim Thuy (HcP/MFE3.2)</t>
         </is>
       </c>
-      <c r="I10" s="65" t="n"/>
-      <c r="J10" s="65" t="n"/>
+      <c r="I10" s="59" t="n"/>
+      <c r="J10" s="59" t="n"/>
       <c r="K10" t="n">
         <v/>
       </c>
@@ -18556,8 +18425,8 @@
           <t>concession at HcP</t>
         </is>
       </c>
-      <c r="I11" s="65" t="n"/>
-      <c r="J11" s="65" t="n"/>
+      <c r="I11" s="59" t="n"/>
+      <c r="J11" s="59" t="n"/>
       <c r="K11" t="n">
         <v/>
       </c>
@@ -18586,8 +18455,8 @@
           <t>Phan Van Phuc (HcP/MFE3.2)</t>
         </is>
       </c>
-      <c r="I12" s="65" t="n"/>
-      <c r="J12" s="65" t="n"/>
+      <c r="I12" s="59" t="n"/>
+      <c r="J12" s="59" t="n"/>
       <c r="K12" t="n">
         <v/>
       </c>
@@ -18616,8 +18485,8 @@
           <t>Nguyen Thi Kim Thuy (HcP/MFE3.2)</t>
         </is>
       </c>
-      <c r="I13" s="65" t="n"/>
-      <c r="J13" s="65" t="n"/>
+      <c r="I13" s="59" t="n"/>
+      <c r="J13" s="59" t="n"/>
       <c r="K13" t="n">
         <v/>
       </c>
@@ -18646,8 +18515,8 @@
           <t>Nguyen Thi Kim Thuy (HcP/MFE3.2)</t>
         </is>
       </c>
-      <c r="I14" s="65" t="n"/>
-      <c r="J14" s="65" t="n"/>
+      <c r="I14" s="59" t="n"/>
+      <c r="J14" s="59" t="n"/>
       <c r="K14" t="n">
         <v/>
       </c>
@@ -18686,8 +18555,8 @@
           <t>Short term in 1 month to reduce block belts</t>
         </is>
       </c>
-      <c r="I15" s="65" t="n"/>
-      <c r="J15" s="65" t="n"/>
+      <c r="I15" s="59" t="n"/>
+      <c r="J15" s="59" t="n"/>
       <c r="K15" t="n">
         <v/>
       </c>
@@ -18716,8 +18585,8 @@
           <t>PHAM TIEN MANH (HcP/TEF6.2)</t>
         </is>
       </c>
-      <c r="I16" s="65" t="n"/>
-      <c r="J16" s="65" t="n"/>
+      <c r="I16" s="59" t="n"/>
+      <c r="J16" s="59" t="n"/>
       <c r="K16" t="n">
         <v/>
       </c>
@@ -18746,8 +18615,8 @@
           <t>PHAM TIEN MANH (HcP/TEF6.2)</t>
         </is>
       </c>
-      <c r="I17" s="65" t="n"/>
-      <c r="J17" s="65" t="n"/>
+      <c r="I17" s="59" t="n"/>
+      <c r="J17" s="59" t="n"/>
       <c r="K17" t="n">
         <v/>
       </c>
@@ -18786,15 +18655,20 @@
           <t>S-CIP</t>
         </is>
       </c>
-      <c r="I18" s="65" t="n">
+      <c r="I18" s="60" t="n">
         <v>45236</v>
       </c>
-      <c r="J18" s="65" t="n">
+      <c r="J18" s="60" t="n">
         <v>45382</v>
       </c>
       <c r="K18" t="n">
         <v>146</v>
       </c>
+      <c r="V18" s="65" t="n"/>
+      <c r="W18" s="65" t="n"/>
+      <c r="X18" s="65" t="n"/>
+      <c r="Y18" s="65" t="n"/>
+      <c r="Z18" s="65" t="n"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -18830,15 +18704,19 @@
           <t>S-CIP</t>
         </is>
       </c>
-      <c r="I19" s="65" t="n">
+      <c r="I19" s="60" t="n">
         <v>45288</v>
       </c>
-      <c r="J19" s="65" t="n">
+      <c r="J19" s="60" t="n">
         <v>45382</v>
       </c>
       <c r="K19" t="n">
         <v>94</v>
       </c>
+      <c r="W19" s="65" t="n"/>
+      <c r="X19" s="65" t="n"/>
+      <c r="Y19" s="65" t="n"/>
+      <c r="Z19" s="65" t="n"/>
     </row>
     <row r="20" hidden="1" s="52">
       <c r="A20" t="n">
@@ -18864,8 +18742,8 @@
           <t>Vang Tien Thang (HcP/MFE3.11)</t>
         </is>
       </c>
-      <c r="I20" s="65" t="n"/>
-      <c r="J20" s="65" t="n"/>
+      <c r="I20" s="59" t="n"/>
+      <c r="J20" s="59" t="n"/>
       <c r="K20" t="n">
         <v/>
       </c>
@@ -18894,8 +18772,8 @@
           <t>Bui Chau Ngoc (HcP/MFE3.11)</t>
         </is>
       </c>
-      <c r="I21" s="65" t="n"/>
-      <c r="J21" s="65" t="n"/>
+      <c r="I21" s="59" t="n"/>
+      <c r="J21" s="59" t="n"/>
       <c r="K21" t="n">
         <v/>
       </c>
@@ -18924,8 +18802,8 @@
           <t>Vang Tien Thang (HcP/MFE3.11)</t>
         </is>
       </c>
-      <c r="I22" s="65" t="n"/>
-      <c r="J22" s="65" t="n"/>
+      <c r="I22" s="59" t="n"/>
+      <c r="J22" s="59" t="n"/>
       <c r="K22" t="n">
         <v/>
       </c>
@@ -18954,8 +18832,8 @@
           <t>Tao Ve Dan (HcP/MFE3.12)</t>
         </is>
       </c>
-      <c r="I23" s="65" t="n"/>
-      <c r="J23" s="65" t="n"/>
+      <c r="I23" s="59" t="n"/>
+      <c r="J23" s="59" t="n"/>
       <c r="K23" t="n">
         <v/>
       </c>
@@ -18984,8 +18862,8 @@
           <t>Tran Quyet (HcP/MFO1-EL7-EOL)</t>
         </is>
       </c>
-      <c r="I24" s="65" t="n"/>
-      <c r="J24" s="65" t="n"/>
+      <c r="I24" s="59" t="n"/>
+      <c r="J24" s="59" t="n"/>
       <c r="K24" t="n">
         <v/>
       </c>
@@ -19014,8 +18892,8 @@
           <t>Vo Minh Thanh (HcP/MFE3.2)</t>
         </is>
       </c>
-      <c r="I25" s="65" t="n"/>
-      <c r="J25" s="65" t="n"/>
+      <c r="I25" s="59" t="n"/>
+      <c r="J25" s="59" t="n"/>
       <c r="K25" t="n">
         <v/>
       </c>
@@ -19044,8 +18922,8 @@
           <t>Do Quoc Vinh (HcP/MFE3.11)</t>
         </is>
       </c>
-      <c r="I26" s="65" t="n"/>
-      <c r="J26" s="65" t="n"/>
+      <c r="I26" s="59" t="n"/>
+      <c r="J26" s="59" t="n"/>
       <c r="K26" t="n">
         <v/>
       </c>
@@ -19069,8 +18947,8 @@
           <t>Production plan of AL06</t>
         </is>
       </c>
-      <c r="I27" s="65" t="n"/>
-      <c r="J27" s="65" t="n"/>
+      <c r="I27" s="59" t="n"/>
+      <c r="J27" s="59" t="n"/>
       <c r="K27" t="n">
         <v/>
       </c>
@@ -19099,8 +18977,8 @@
           <t>Bui Chau Ngoc (HcP/MFE3.1)</t>
         </is>
       </c>
-      <c r="I28" s="65" t="n"/>
-      <c r="J28" s="65" t="n"/>
+      <c r="I28" s="59" t="n"/>
+      <c r="J28" s="59" t="n"/>
       <c r="K28" t="n">
         <v/>
       </c>
@@ -19144,15 +19022,16 @@
           <t>SCIP Reduce scrapped element</t>
         </is>
       </c>
-      <c r="I29" s="65" t="n">
+      <c r="I29" s="60" t="n">
         <v>45232</v>
       </c>
-      <c r="J29" s="65" t="n">
+      <c r="J29" s="60" t="n">
         <v>45260</v>
       </c>
       <c r="K29" t="n">
         <v>28</v>
       </c>
+      <c r="V29" s="65" t="n"/>
     </row>
     <row r="30" hidden="1" s="52">
       <c r="A30" t="n">
@@ -19178,8 +19057,8 @@
           <t>Vo Thien Tam (HcP/MFE3.12)</t>
         </is>
       </c>
-      <c r="I30" s="65" t="n"/>
-      <c r="J30" s="65" t="n"/>
+      <c r="I30" s="59" t="n"/>
+      <c r="J30" s="59" t="n"/>
       <c r="K30" t="n">
         <v/>
       </c>
@@ -19208,8 +19087,8 @@
           <t>Nguyen Thi Kim Thuy (HcP/MFW3.4-F3 HcP/MFW3.4-A3)</t>
         </is>
       </c>
-      <c r="I31" s="65" t="n"/>
-      <c r="J31" s="65" t="n"/>
+      <c r="I31" s="59" t="n"/>
+      <c r="J31" s="59" t="n"/>
       <c r="K31" t="n">
         <v/>
       </c>
@@ -19238,8 +19117,8 @@
           <t>Tran Quyet (HcP/MFO1-EL7-EOL)</t>
         </is>
       </c>
-      <c r="I32" s="65" t="n"/>
-      <c r="J32" s="65" t="n"/>
+      <c r="I32" s="59" t="n"/>
+      <c r="J32" s="59" t="n"/>
       <c r="K32" t="n">
         <v/>
       </c>
@@ -19283,15 +19162,19 @@
           <t>support LOG's 8D</t>
         </is>
       </c>
-      <c r="I33" s="65" t="n">
+      <c r="I33" s="60" t="n">
         <v>45266</v>
       </c>
-      <c r="J33" s="65" t="n">
+      <c r="J33" s="60" t="n">
         <v>45357</v>
       </c>
       <c r="K33" t="n">
         <v>91</v>
       </c>
+      <c r="W33" s="65" t="n"/>
+      <c r="X33" s="65" t="n"/>
+      <c r="Y33" s="65" t="n"/>
+      <c r="Z33" s="65" t="n"/>
     </row>
     <row r="34" hidden="1" s="52">
       <c r="A34" t="n">
@@ -19317,8 +19200,8 @@
           <t>Tao Ve Dan (HcP/MFE3.12)</t>
         </is>
       </c>
-      <c r="I34" s="65" t="n"/>
-      <c r="J34" s="65" t="n"/>
+      <c r="I34" s="59" t="n"/>
+      <c r="J34" s="59" t="n"/>
       <c r="K34" t="n">
         <v/>
       </c>
@@ -19362,15 +19245,18 @@
           <t>Broken element</t>
         </is>
       </c>
-      <c r="I35" s="65" t="n">
+      <c r="I35" s="60" t="n">
         <v>45274</v>
       </c>
-      <c r="J35" s="65" t="n">
+      <c r="J35" s="60" t="n">
         <v>45351</v>
       </c>
       <c r="K35" t="n">
         <v>77</v>
       </c>
+      <c r="W35" s="65" t="n"/>
+      <c r="X35" s="65" t="n"/>
+      <c r="Y35" s="65" t="n"/>
     </row>
     <row r="36" hidden="1" s="52">
       <c r="A36" t="n">
@@ -19396,8 +19282,8 @@
           <t>Nguyen Van Hoa (HcP/MFE3.11)</t>
         </is>
       </c>
-      <c r="I36" s="65" t="n"/>
-      <c r="J36" s="65" t="n"/>
+      <c r="I36" s="59" t="n"/>
+      <c r="J36" s="59" t="n"/>
       <c r="K36" t="n">
         <v/>
       </c>
@@ -19426,8 +19312,8 @@
           <t>Nguyen Thi Kim Thuy (HcP/MFE3.2)</t>
         </is>
       </c>
-      <c r="I37" s="65" t="n"/>
-      <c r="J37" s="65" t="n"/>
+      <c r="I37" s="59" t="n"/>
+      <c r="J37" s="59" t="n"/>
       <c r="K37" t="n">
         <v/>
       </c>
@@ -19456,8 +19342,8 @@
           <t>Nguyen Van Tuan (HcP/MFW3.2-F2)</t>
         </is>
       </c>
-      <c r="I38" s="65" t="n"/>
-      <c r="J38" s="65" t="n"/>
+      <c r="I38" s="59" t="n"/>
+      <c r="J38" s="59" t="n"/>
       <c r="K38" t="n">
         <v/>
       </c>
@@ -19486,8 +19372,8 @@
           <t>Trinh Phu Hien (HcP/MFE3.12)</t>
         </is>
       </c>
-      <c r="I39" s="65" t="n"/>
-      <c r="J39" s="65" t="n"/>
+      <c r="I39" s="59" t="n"/>
+      <c r="J39" s="59" t="n"/>
       <c r="K39" t="n">
         <v/>
       </c>
@@ -19511,8 +19397,8 @@
           <t>Temporary work instruction to control element from HKM coil produce for belt 094 on Al11</t>
         </is>
       </c>
-      <c r="I40" s="65" t="n"/>
-      <c r="J40" s="65" t="n"/>
+      <c r="I40" s="59" t="n"/>
+      <c r="J40" s="59" t="n"/>
       <c r="K40" t="n">
         <v/>
       </c>
@@ -19551,15 +19437,18 @@
           <t>Quality</t>
         </is>
       </c>
-      <c r="I41" s="65" t="n">
+      <c r="I41" s="60" t="n">
         <v>45288</v>
       </c>
-      <c r="J41" s="65" t="n">
+      <c r="J41" s="60" t="n">
         <v>45351</v>
       </c>
       <c r="K41" t="n">
         <v>63</v>
       </c>
+      <c r="W41" s="65" t="n"/>
+      <c r="X41" s="65" t="n"/>
+      <c r="Y41" s="65" t="n"/>
     </row>
     <row r="42" hidden="1" s="52">
       <c r="A42" t="n">
@@ -19585,8 +19474,8 @@
           <t>PHAM TIEN MANH (HcP/TEF6.2)</t>
         </is>
       </c>
-      <c r="I42" s="65" t="n"/>
-      <c r="J42" s="65" t="n"/>
+      <c r="I42" s="59" t="n"/>
+      <c r="J42" s="59" t="n"/>
       <c r="K42" t="n">
         <v/>
       </c>
@@ -19615,8 +19504,8 @@
           <t>Vo Thien Tam (HcP/MFE3.12)</t>
         </is>
       </c>
-      <c r="I43" s="65" t="n"/>
-      <c r="J43" s="65" t="n"/>
+      <c r="I43" s="59" t="n"/>
+      <c r="J43" s="59" t="n"/>
       <c r="K43" t="n">
         <v/>
       </c>
@@ -19645,8 +19534,8 @@
           <t>PHAM TIEN MANH (HcP/TEF6.2)</t>
         </is>
       </c>
-      <c r="I44" s="65" t="n"/>
-      <c r="J44" s="65" t="n"/>
+      <c r="I44" s="59" t="n"/>
+      <c r="J44" s="59" t="n"/>
       <c r="K44" t="n">
         <v/>
       </c>
@@ -19675,8 +19564,8 @@
           <t>Tao Ve Dan (HcP/MFE3.12)</t>
         </is>
       </c>
-      <c r="I45" s="65" t="n"/>
-      <c r="J45" s="65" t="n"/>
+      <c r="I45" s="59" t="n"/>
+      <c r="J45" s="59" t="n"/>
       <c r="K45" t="n">
         <v/>
       </c>
@@ -19715,15 +19604,21 @@
           <t>Quality</t>
         </is>
       </c>
-      <c r="I46" s="65" t="n">
+      <c r="I46" s="60" t="n">
         <v>45290</v>
       </c>
-      <c r="J46" s="65" t="n">
+      <c r="J46" s="60" t="n">
         <v>45443</v>
       </c>
       <c r="K46" t="n">
         <v>153</v>
       </c>
+      <c r="W46" s="65" t="n"/>
+      <c r="X46" s="65" t="n"/>
+      <c r="Y46" s="65" t="n"/>
+      <c r="Z46" s="65" t="n"/>
+      <c r="AA46" s="65" t="n"/>
+      <c r="AB46" s="65" t="n"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -19764,15 +19659,18 @@
           <t>Metal Contamination</t>
         </is>
       </c>
-      <c r="I47" s="65" t="n">
+      <c r="I47" s="60" t="n">
         <v>45260</v>
       </c>
-      <c r="J47" s="65" t="n">
+      <c r="J47" s="60" t="n">
         <v>45322</v>
       </c>
       <c r="K47" t="n">
         <v>62</v>
       </c>
+      <c r="V47" s="65" t="n"/>
+      <c r="W47" s="65" t="n"/>
+      <c r="X47" s="65" t="n"/>
     </row>
     <row r="48" hidden="1" s="52">
       <c r="A48" t="n">
@@ -19793,8 +19691,8 @@
           <t>Working Plan Re-packing and Run loopset of topic QZ</t>
         </is>
       </c>
-      <c r="I48" s="65" t="n"/>
-      <c r="J48" s="65" t="n"/>
+      <c r="I48" s="59" t="n"/>
+      <c r="J48" s="59" t="n"/>
       <c r="K48" t="n">
         <v/>
       </c>
@@ -19838,15 +19736,19 @@
           <t>Metal contamination</t>
         </is>
       </c>
-      <c r="I49" s="65" t="n">
+      <c r="I49" s="60" t="n">
         <v>45237</v>
       </c>
-      <c r="J49" s="65" t="n">
+      <c r="J49" s="60" t="n">
         <v>45336</v>
       </c>
       <c r="K49" t="n">
         <v>99</v>
       </c>
+      <c r="V49" s="65" t="n"/>
+      <c r="W49" s="65" t="n"/>
+      <c r="X49" s="65" t="n"/>
+      <c r="Y49" s="65" t="n"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -19887,15 +19789,19 @@
           <t>PSS shopfloor</t>
         </is>
       </c>
-      <c r="I50" s="65" t="n">
+      <c r="I50" s="60" t="n">
         <v>45243</v>
       </c>
-      <c r="J50" s="65" t="n">
+      <c r="J50" s="60" t="n">
         <v>45335</v>
       </c>
       <c r="K50" t="n">
         <v>92</v>
       </c>
+      <c r="V50" s="65" t="n"/>
+      <c r="W50" s="65" t="n"/>
+      <c r="X50" s="65" t="n"/>
+      <c r="Y50" s="65" t="n"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -19936,15 +19842,19 @@
           <t>BLI - cycle 2_2023</t>
         </is>
       </c>
-      <c r="I51" s="65" t="n">
+      <c r="I51" s="60" t="n">
         <v>45289</v>
       </c>
-      <c r="J51" s="65" t="n">
+      <c r="J51" s="60" t="n">
         <v>45380</v>
       </c>
       <c r="K51" t="n">
         <v>91</v>
       </c>
+      <c r="W51" s="65" t="n"/>
+      <c r="X51" s="65" t="n"/>
+      <c r="Y51" s="65" t="n"/>
+      <c r="Z51" s="65" t="n"/>
     </row>
     <row r="52" hidden="1" s="52">
       <c r="A52" t="n">
@@ -19970,8 +19880,8 @@
           <t>Nguyen Van Tuan (HcP/MFW3.2-F2)</t>
         </is>
       </c>
-      <c r="I52" s="65" t="n"/>
-      <c r="J52" s="65" t="n"/>
+      <c r="I52" s="59" t="n"/>
+      <c r="J52" s="59" t="n"/>
       <c r="K52" t="n">
         <v/>
       </c>
@@ -20000,8 +19910,8 @@
           <t>Tao Ve Dan (HcP/MFE3.12)</t>
         </is>
       </c>
-      <c r="I53" s="65" t="n"/>
-      <c r="J53" s="65" t="n"/>
+      <c r="I53" s="59" t="n"/>
+      <c r="J53" s="59" t="n"/>
       <c r="K53" t="n">
         <v/>
       </c>
@@ -20030,8 +19940,8 @@
           <t>Phan Van Phuc (HcP/MFE3.2)</t>
         </is>
       </c>
-      <c r="I54" s="65" t="n"/>
-      <c r="J54" s="65" t="n"/>
+      <c r="I54" s="59" t="n"/>
+      <c r="J54" s="59" t="n"/>
       <c r="K54" t="n">
         <v/>
       </c>
@@ -20070,15 +19980,18 @@
           <t>S-CIP</t>
         </is>
       </c>
-      <c r="I55" s="65" t="n">
+      <c r="I55" s="60" t="n">
         <v>45250</v>
       </c>
-      <c r="J55" s="65" t="n">
+      <c r="J55" s="60" t="n">
         <v>45322</v>
       </c>
       <c r="K55" t="n">
         <v>72</v>
       </c>
+      <c r="V55" s="65" t="n"/>
+      <c r="W55" s="65" t="n"/>
+      <c r="X55" s="65" t="n"/>
     </row>
     <row r="56" hidden="1" s="52">
       <c r="A56" t="n">
@@ -20104,8 +20017,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3.12)</t>
         </is>
       </c>
-      <c r="I56" s="65" t="n"/>
-      <c r="J56" s="65" t="n"/>
+      <c r="I56" s="59" t="n"/>
+      <c r="J56" s="59" t="n"/>
       <c r="K56" t="n">
         <v/>
       </c>
@@ -20134,8 +20047,8 @@
           <t>Nguyen Van Ry (HcP/MFE3.12)</t>
         </is>
       </c>
-      <c r="I57" s="65" t="n"/>
-      <c r="J57" s="65" t="n"/>
+      <c r="I57" s="59" t="n"/>
+      <c r="J57" s="59" t="n"/>
       <c r="K57" t="n">
         <v/>
       </c>
@@ -20174,15 +20087,17 @@
           <t>S-CIP</t>
         </is>
       </c>
-      <c r="I58" s="65" t="n">
+      <c r="I58" s="60" t="n">
         <v>45280</v>
       </c>
-      <c r="J58" s="65" t="n">
+      <c r="J58" s="60" t="n">
         <v>45322</v>
       </c>
       <c r="K58" t="n">
         <v>42</v>
       </c>
+      <c r="W58" s="65" t="n"/>
+      <c r="X58" s="65" t="n"/>
     </row>
     <row r="59" hidden="1" s="52">
       <c r="A59" t="n">
@@ -20208,8 +20123,8 @@
           <t>PHAM TIEN MANH (HcP/TEF6.2)</t>
         </is>
       </c>
-      <c r="I59" s="65" t="n"/>
-      <c r="J59" s="65" t="n"/>
+      <c r="I59" s="59" t="n"/>
+      <c r="J59" s="59" t="n"/>
       <c r="K59" t="n">
         <v/>
       </c>
@@ -20238,8 +20153,8 @@
           <t>Bui Chau Ngoc (HcP/MFE3.11)</t>
         </is>
       </c>
-      <c r="I60" s="65" t="n"/>
-      <c r="J60" s="65" t="n"/>
+      <c r="I60" s="59" t="n"/>
+      <c r="J60" s="59" t="n"/>
       <c r="K60" t="n">
         <v/>
       </c>
@@ -20268,8 +20183,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3.12)</t>
         </is>
       </c>
-      <c r="I61" s="65" t="n"/>
-      <c r="J61" s="65" t="n"/>
+      <c r="I61" s="59" t="n"/>
+      <c r="J61" s="59" t="n"/>
       <c r="K61" t="n">
         <v/>
       </c>
@@ -20308,15 +20223,18 @@
           <t>S-CIP</t>
         </is>
       </c>
-      <c r="I62" s="65" t="n">
+      <c r="I62" s="60" t="n">
         <v>45253</v>
       </c>
-      <c r="J62" s="65" t="n">
+      <c r="J62" s="60" t="n">
         <v>45322</v>
       </c>
       <c r="K62" t="n">
         <v>69</v>
       </c>
+      <c r="V62" s="65" t="n"/>
+      <c r="W62" s="65" t="n"/>
+      <c r="X62" s="65" t="n"/>
     </row>
     <row r="63" hidden="1" s="52">
       <c r="A63" t="n">
@@ -20342,8 +20260,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3.12)</t>
         </is>
       </c>
-      <c r="I63" s="65" t="n"/>
-      <c r="J63" s="65" t="n"/>
+      <c r="I63" s="59" t="n"/>
+      <c r="J63" s="59" t="n"/>
       <c r="K63" t="n">
         <v/>
       </c>
@@ -20387,15 +20305,20 @@
           <t>Safety</t>
         </is>
       </c>
-      <c r="I64" s="65" t="n">
+      <c r="I64" s="60" t="n">
         <v>45217</v>
       </c>
-      <c r="J64" s="65" t="n">
+      <c r="J64" s="60" t="n">
         <v>45351</v>
       </c>
       <c r="K64" t="n">
         <v>134</v>
       </c>
+      <c r="U64" s="65" t="n"/>
+      <c r="V64" s="65" t="n"/>
+      <c r="W64" s="65" t="n"/>
+      <c r="X64" s="65" t="n"/>
+      <c r="Y64" s="65" t="n"/>
     </row>
     <row r="65" hidden="1" s="52">
       <c r="A65" t="n">
@@ -20421,8 +20344,8 @@
           <t>Do Quoc Vinh (HcP/MFE3.11)</t>
         </is>
       </c>
-      <c r="I65" s="65" t="n"/>
-      <c r="J65" s="65" t="n"/>
+      <c r="I65" s="59" t="n"/>
+      <c r="J65" s="59" t="n"/>
       <c r="K65" t="n">
         <v/>
       </c>
@@ -20461,15 +20384,18 @@
           <t>S-CIP</t>
         </is>
       </c>
-      <c r="I66" s="65" t="n">
+      <c r="I66" s="60" t="n">
         <v>45076</v>
       </c>
-      <c r="J66" s="65" t="n">
+      <c r="J66" s="60" t="n">
         <v>45138</v>
       </c>
       <c r="K66" t="n">
         <v>62</v>
       </c>
+      <c r="P66" s="65" t="n"/>
+      <c r="Q66" s="65" t="n"/>
+      <c r="R66" s="65" t="n"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -20505,15 +20431,19 @@
           <t>S-CIP</t>
         </is>
       </c>
-      <c r="I67" s="65" t="n">
+      <c r="I67" s="60" t="n">
         <v>45072</v>
       </c>
-      <c r="J67" s="65" t="n">
+      <c r="J67" s="60" t="n">
         <v>45164</v>
       </c>
       <c r="K67" t="n">
         <v>92</v>
       </c>
+      <c r="P67" s="65" t="n"/>
+      <c r="Q67" s="65" t="n"/>
+      <c r="R67" s="65" t="n"/>
+      <c r="S67" s="65" t="n"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -20549,15 +20479,22 @@
           <t>S-CIP</t>
         </is>
       </c>
-      <c r="I68" s="65" t="n">
+      <c r="I68" s="60" t="n">
         <v>45232</v>
       </c>
-      <c r="J68" s="65" t="n">
+      <c r="J68" s="60" t="n">
         <v>45413</v>
       </c>
       <c r="K68" t="n">
         <v>181</v>
       </c>
+      <c r="V68" s="65" t="n"/>
+      <c r="W68" s="65" t="n"/>
+      <c r="X68" s="65" t="n"/>
+      <c r="Y68" s="65" t="n"/>
+      <c r="Z68" s="65" t="n"/>
+      <c r="AA68" s="65" t="n"/>
+      <c r="AB68" s="65" t="n"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -20598,15 +20535,19 @@
           <t>8D_23_H004 Green KLT Bending</t>
         </is>
       </c>
-      <c r="I69" s="65" t="n">
+      <c r="I69" s="60" t="n">
         <v>45197</v>
       </c>
-      <c r="J69" s="65" t="n">
+      <c r="J69" s="60" t="n">
         <v>45291</v>
       </c>
       <c r="K69" t="n">
         <v>94</v>
       </c>
+      <c r="T69" s="65" t="n"/>
+      <c r="U69" s="65" t="n"/>
+      <c r="V69" s="65" t="n"/>
+      <c r="W69" s="65" t="n"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -20647,15 +20588,18 @@
           <t>BLI - cycle 2_2023</t>
         </is>
       </c>
-      <c r="I70" s="65" t="n">
+      <c r="I70" s="60" t="n">
         <v>45201</v>
       </c>
-      <c r="J70" s="65" t="n">
+      <c r="J70" s="60" t="n">
         <v>45291</v>
       </c>
       <c r="K70" t="n">
         <v>90</v>
       </c>
+      <c r="U70" s="65" t="n"/>
+      <c r="V70" s="65" t="n"/>
+      <c r="W70" s="65" t="n"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -20691,15 +20635,20 @@
           <t>Quality</t>
         </is>
       </c>
-      <c r="I71" s="65" t="n">
+      <c r="I71" s="60" t="n">
         <v>45142</v>
       </c>
-      <c r="J71" s="65" t="n">
+      <c r="J71" s="60" t="n">
         <v>45291</v>
       </c>
       <c r="K71" t="n">
         <v>149</v>
       </c>
+      <c r="S71" s="65" t="n"/>
+      <c r="T71" s="65" t="n"/>
+      <c r="U71" s="65" t="n"/>
+      <c r="V71" s="65" t="n"/>
+      <c r="W71" s="65" t="n"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -20740,15 +20689,17 @@
           <t>PSS Shopfloor: Loss Dailycheck</t>
         </is>
       </c>
-      <c r="I72" s="65" t="n">
+      <c r="I72" s="60" t="n">
         <v>45253</v>
       </c>
-      <c r="J72" s="65" t="n">
+      <c r="J72" s="60" t="n">
         <v>45290</v>
       </c>
       <c r="K72" t="n">
         <v>37</v>
       </c>
+      <c r="V72" s="65" t="n"/>
+      <c r="W72" s="65" t="n"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -20784,15 +20735,17 @@
           <t>Quality</t>
         </is>
       </c>
-      <c r="I73" s="65" t="n">
+      <c r="I73" s="60" t="n">
         <v>45246</v>
       </c>
-      <c r="J73" s="65" t="n">
+      <c r="J73" s="60" t="n">
         <v>45290</v>
       </c>
       <c r="K73" t="n">
         <v>44</v>
       </c>
+      <c r="V73" s="65" t="n"/>
+      <c r="W73" s="65" t="n"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -20828,15 +20781,19 @@
           <t>S-CIP</t>
         </is>
       </c>
-      <c r="I74" s="65" t="n">
+      <c r="I74" s="60" t="n">
         <v>45188</v>
       </c>
-      <c r="J74" s="65" t="n">
+      <c r="J74" s="60" t="n">
         <v>45279</v>
       </c>
       <c r="K74" t="n">
         <v>91</v>
       </c>
+      <c r="T74" s="65" t="n"/>
+      <c r="U74" s="65" t="n"/>
+      <c r="V74" s="65" t="n"/>
+      <c r="W74" s="65" t="n"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -20877,15 +20834,19 @@
           <t>Improve OEE of AL-13</t>
         </is>
       </c>
-      <c r="I75" s="65" t="n">
+      <c r="I75" s="60" t="n">
         <v>45194</v>
       </c>
-      <c r="J75" s="65" t="n">
+      <c r="J75" s="60" t="n">
         <v>45285</v>
       </c>
       <c r="K75" t="n">
         <v>91</v>
       </c>
+      <c r="T75" s="65" t="n"/>
+      <c r="U75" s="65" t="n"/>
+      <c r="V75" s="65" t="n"/>
+      <c r="W75" s="65" t="n"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -20921,15 +20882,18 @@
           <t>Quality</t>
         </is>
       </c>
-      <c r="I76" s="65" t="n">
+      <c r="I76" s="60" t="n">
         <v>45278</v>
       </c>
-      <c r="J76" s="65" t="n">
+      <c r="J76" s="60" t="n">
         <v>45351</v>
       </c>
       <c r="K76" t="n">
         <v>73</v>
       </c>
+      <c r="W76" s="65" t="n"/>
+      <c r="X76" s="65" t="n"/>
+      <c r="Y76" s="65" t="n"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -20965,15 +20929,17 @@
           <t>S-CIP</t>
         </is>
       </c>
-      <c r="I77" s="65" t="n">
+      <c r="I77" s="60" t="n">
         <v>45260</v>
       </c>
-      <c r="J77" s="65" t="n">
+      <c r="J77" s="60" t="n">
         <v>45275</v>
       </c>
       <c r="K77" t="n">
         <v>15</v>
       </c>
+      <c r="V77" s="65" t="n"/>
+      <c r="W77" s="65" t="n"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -21004,15 +20970,17 @@
           <t>MSE1</t>
         </is>
       </c>
-      <c r="I78" s="65" t="n">
+      <c r="I78" s="60" t="n">
         <v>45261</v>
       </c>
-      <c r="J78" s="65" t="n">
+      <c r="J78" s="60" t="n">
         <v>45322</v>
       </c>
       <c r="K78" t="n">
         <v>61</v>
       </c>
+      <c r="W78" s="65" t="n"/>
+      <c r="X78" s="65" t="n"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -21053,15 +21021,18 @@
           <t>SCIP Reduce scrapped element</t>
         </is>
       </c>
-      <c r="I79" s="65" t="n">
+      <c r="I79" s="60" t="n">
         <v>45180</v>
       </c>
-      <c r="J79" s="65" t="n">
+      <c r="J79" s="60" t="n">
         <v>45260</v>
       </c>
       <c r="K79" t="n">
         <v>80</v>
       </c>
+      <c r="T79" s="65" t="n"/>
+      <c r="U79" s="65" t="n"/>
+      <c r="V79" s="65" t="n"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -21097,15 +21068,22 @@
           <t>Quality</t>
         </is>
       </c>
-      <c r="I80" s="65" t="n">
+      <c r="I80" s="60" t="n">
         <v>45240</v>
       </c>
-      <c r="J80" s="65" t="n">
+      <c r="J80" s="60" t="n">
         <v>45413</v>
       </c>
       <c r="K80" t="n">
         <v>173</v>
       </c>
+      <c r="V80" s="65" t="n"/>
+      <c r="W80" s="65" t="n"/>
+      <c r="X80" s="65" t="n"/>
+      <c r="Y80" s="65" t="n"/>
+      <c r="Z80" s="65" t="n"/>
+      <c r="AA80" s="65" t="n"/>
+      <c r="AB80" s="65" t="n"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -21146,15 +21124,19 @@
           <t>support LOG's 8D</t>
         </is>
       </c>
-      <c r="I81" s="65" t="n">
+      <c r="I81" s="60" t="n">
         <v>45176</v>
       </c>
-      <c r="J81" s="65" t="n">
+      <c r="J81" s="60" t="n">
         <v>45267</v>
       </c>
       <c r="K81" t="n">
         <v>91</v>
       </c>
+      <c r="T81" s="65" t="n"/>
+      <c r="U81" s="65" t="n"/>
+      <c r="V81" s="65" t="n"/>
+      <c r="W81" s="65" t="n"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -21190,15 +21172,17 @@
           <t>Quality</t>
         </is>
       </c>
-      <c r="I82" s="65" t="n">
+      <c r="I82" s="60" t="n">
         <v>45208</v>
       </c>
-      <c r="J82" s="65" t="n">
+      <c r="J82" s="60" t="n">
         <v>45250</v>
       </c>
       <c r="K82" t="n">
         <v>42</v>
       </c>
+      <c r="U82" s="65" t="n"/>
+      <c r="V82" s="65" t="n"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -21239,15 +21223,18 @@
           <t>VCI traceability project from LOG</t>
         </is>
       </c>
-      <c r="I83" s="65" t="n">
+      <c r="I83" s="60" t="n">
         <v>45231</v>
       </c>
-      <c r="J83" s="65" t="n">
+      <c r="J83" s="60" t="n">
         <v>45322</v>
       </c>
       <c r="K83" t="n">
         <v>91</v>
       </c>
+      <c r="V83" s="65" t="n"/>
+      <c r="W83" s="65" t="n"/>
+      <c r="X83" s="65" t="n"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -21288,15 +21275,19 @@
           <t>Scratch on head element</t>
         </is>
       </c>
-      <c r="I84" s="65" t="n">
+      <c r="I84" s="60" t="n">
         <v>45243</v>
       </c>
-      <c r="J84" s="65" t="n">
+      <c r="J84" s="60" t="n">
         <v>45351</v>
       </c>
       <c r="K84" t="n">
         <v>108</v>
       </c>
+      <c r="V84" s="65" t="n"/>
+      <c r="W84" s="65" t="n"/>
+      <c r="X84" s="65" t="n"/>
+      <c r="Y84" s="65" t="n"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -21332,15 +21323,21 @@
           <t>BPS</t>
         </is>
       </c>
-      <c r="I85" s="65" t="n">
+      <c r="I85" s="60" t="n">
         <v>45265</v>
       </c>
-      <c r="J85" s="65" t="n">
+      <c r="J85" s="60" t="n">
         <v>45443</v>
       </c>
       <c r="K85" t="n">
         <v>178</v>
       </c>
+      <c r="W85" s="65" t="n"/>
+      <c r="X85" s="65" t="n"/>
+      <c r="Y85" s="65" t="n"/>
+      <c r="Z85" s="65" t="n"/>
+      <c r="AA85" s="65" t="n"/>
+      <c r="AB85" s="65" t="n"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -21381,15 +21378,18 @@
           <t>troubleshooting to reduce loss time</t>
         </is>
       </c>
-      <c r="I86" s="65" t="n">
+      <c r="I86" s="60" t="n">
         <v>45195</v>
       </c>
-      <c r="J86" s="65" t="n">
+      <c r="J86" s="60" t="n">
         <v>45260</v>
       </c>
       <c r="K86" t="n">
         <v>65</v>
       </c>
+      <c r="T86" s="65" t="n"/>
+      <c r="U86" s="65" t="n"/>
+      <c r="V86" s="65" t="n"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -21430,15 +21430,17 @@
           <t>Fail DC EC</t>
         </is>
       </c>
-      <c r="I87" s="65" t="n">
+      <c r="I87" s="60" t="n">
         <v>45174</v>
       </c>
-      <c r="J87" s="65" t="n">
+      <c r="J87" s="60" t="n">
         <v>45230</v>
       </c>
       <c r="K87" t="n">
         <v>56</v>
       </c>
+      <c r="T87" s="65" t="n"/>
+      <c r="U87" s="65" t="n"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -21479,15 +21481,18 @@
           <t>Imprvove OEE of AL-13</t>
         </is>
       </c>
-      <c r="I88" s="65" t="n">
+      <c r="I88" s="60" t="n">
         <v>45173</v>
       </c>
-      <c r="J88" s="65" t="n">
+      <c r="J88" s="60" t="n">
         <v>45236</v>
       </c>
       <c r="K88" t="n">
         <v>63</v>
       </c>
+      <c r="T88" s="65" t="n"/>
+      <c r="U88" s="65" t="n"/>
+      <c r="V88" s="65" t="n"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -21528,15 +21533,20 @@
           <t>Scratch on head element</t>
         </is>
       </c>
-      <c r="I89" s="65" t="n">
+      <c r="I89" s="60" t="n">
         <v>45107</v>
       </c>
-      <c r="J89" s="65" t="n">
+      <c r="J89" s="60" t="n">
         <v>45229</v>
       </c>
       <c r="K89" t="n">
         <v>122</v>
       </c>
+      <c r="Q89" s="65" t="n"/>
+      <c r="R89" s="65" t="n"/>
+      <c r="S89" s="65" t="n"/>
+      <c r="T89" s="65" t="n"/>
+      <c r="U89" s="65" t="n"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -21572,15 +21582,16 @@
           <t>OEE</t>
         </is>
       </c>
-      <c r="I90" s="65" t="n">
+      <c r="I90" s="60" t="n">
         <v>45240</v>
       </c>
-      <c r="J90" s="65" t="n">
+      <c r="J90" s="60" t="n">
         <v>45260</v>
       </c>
       <c r="K90" t="n">
         <v>20</v>
       </c>
+      <c r="V90" s="65" t="n"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -21616,15 +21627,16 @@
           <t>OEE</t>
         </is>
       </c>
-      <c r="I91" s="65" t="n">
+      <c r="I91" s="60" t="n">
         <v>45244</v>
       </c>
-      <c r="J91" s="65" t="n">
+      <c r="J91" s="60" t="n">
         <v>45245</v>
       </c>
       <c r="K91" t="n">
         <v>1</v>
       </c>
+      <c r="V91" s="65" t="n"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -21660,15 +21672,16 @@
           <t>Quality</t>
         </is>
       </c>
-      <c r="I92" s="65" t="n">
+      <c r="I92" s="60" t="n">
         <v>45184</v>
       </c>
-      <c r="J92" s="65" t="n">
+      <c r="J92" s="60" t="n">
         <v>45186</v>
       </c>
       <c r="K92" t="n">
         <v>2</v>
       </c>
+      <c r="T92" s="65" t="n"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -21709,15 +21722,18 @@
           <t>8D_23_H003 Oil leakage from VCI bag_ CHAM</t>
         </is>
       </c>
-      <c r="I93" s="65" t="n">
+      <c r="I93" s="60" t="n">
         <v>45163</v>
       </c>
-      <c r="J93" s="65" t="n">
+      <c r="J93" s="60" t="n">
         <v>45230</v>
       </c>
       <c r="K93" t="n">
         <v>67</v>
       </c>
+      <c r="S93" s="65" t="n"/>
+      <c r="T93" s="65" t="n"/>
+      <c r="U93" s="65" t="n"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -21753,15 +21769,17 @@
           <t>S-CIP</t>
         </is>
       </c>
-      <c r="I94" s="65" t="n">
+      <c r="I94" s="60" t="n">
         <v>45141</v>
       </c>
-      <c r="J94" s="65" t="n">
+      <c r="J94" s="60" t="n">
         <v>45199</v>
       </c>
       <c r="K94" t="n">
         <v>58</v>
       </c>
+      <c r="S94" s="65" t="n"/>
+      <c r="T94" s="65" t="n"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -21797,15 +21815,19 @@
           <t>Quality</t>
         </is>
       </c>
-      <c r="I95" s="65" t="n">
+      <c r="I95" s="60" t="n">
         <v>45113</v>
       </c>
-      <c r="J95" s="65" t="n">
+      <c r="J95" s="60" t="n">
         <v>45230</v>
       </c>
       <c r="K95" t="n">
         <v>117</v>
       </c>
+      <c r="R95" s="65" t="n"/>
+      <c r="S95" s="65" t="n"/>
+      <c r="T95" s="65" t="n"/>
+      <c r="U95" s="65" t="n"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -21841,15 +21863,18 @@
           <t>Quality</t>
         </is>
       </c>
-      <c r="I96" s="65" t="n">
+      <c r="I96" s="60" t="n">
         <v>45127</v>
       </c>
-      <c r="J96" s="65" t="n">
+      <c r="J96" s="60" t="n">
         <v>45190</v>
       </c>
       <c r="K96" t="n">
         <v>63</v>
       </c>
+      <c r="R96" s="65" t="n"/>
+      <c r="S96" s="65" t="n"/>
+      <c r="T96" s="65" t="n"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -21885,15 +21910,17 @@
           <t>S-CIP</t>
         </is>
       </c>
-      <c r="I97" s="65" t="n">
+      <c r="I97" s="60" t="n">
         <v>45140</v>
       </c>
-      <c r="J97" s="65" t="n">
+      <c r="J97" s="60" t="n">
         <v>45199</v>
       </c>
       <c r="K97" t="n">
         <v>59</v>
       </c>
+      <c r="S97" s="65" t="n"/>
+      <c r="T97" s="65" t="n"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -21929,15 +21956,17 @@
           <t>S-CIP</t>
         </is>
       </c>
-      <c r="I98" s="65" t="n">
+      <c r="I98" s="60" t="n">
         <v>45219</v>
       </c>
-      <c r="J98" s="65" t="n">
+      <c r="J98" s="60" t="n">
         <v>45260</v>
       </c>
       <c r="K98" t="n">
         <v>41</v>
       </c>
+      <c r="U98" s="65" t="n"/>
+      <c r="V98" s="65" t="n"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -21978,15 +22007,19 @@
           <t>VCI traceability project from LOG</t>
         </is>
       </c>
-      <c r="I99" s="65" t="n">
+      <c r="I99" s="60" t="n">
         <v>45140</v>
       </c>
-      <c r="J99" s="65" t="n">
+      <c r="J99" s="60" t="n">
         <v>45232</v>
       </c>
       <c r="K99" t="n">
         <v>92</v>
       </c>
+      <c r="S99" s="65" t="n"/>
+      <c r="T99" s="65" t="n"/>
+      <c r="U99" s="65" t="n"/>
+      <c r="V99" s="65" t="n"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -22022,15 +22055,16 @@
           <t>S-CIP</t>
         </is>
       </c>
-      <c r="I100" s="65" t="n">
+      <c r="I100" s="60" t="n">
         <v>45223</v>
       </c>
-      <c r="J100" s="65" t="n">
+      <c r="J100" s="60" t="n">
         <v>45226</v>
       </c>
       <c r="K100" t="n">
         <v>3</v>
       </c>
+      <c r="U100" s="65" t="n"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -22066,15 +22100,17 @@
           <t>Quality</t>
         </is>
       </c>
-      <c r="I101" s="65" t="n">
+      <c r="I101" s="60" t="n">
         <v>45168</v>
       </c>
-      <c r="J101" s="65" t="n">
+      <c r="J101" s="60" t="n">
         <v>45177</v>
       </c>
       <c r="K101" t="n">
         <v>9</v>
       </c>
+      <c r="S101" s="65" t="n"/>
+      <c r="T101" s="65" t="n"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -22115,15 +22151,19 @@
           <t>Contamination on element</t>
         </is>
       </c>
-      <c r="I102" s="65" t="n">
+      <c r="I102" s="60" t="n">
         <v>45107</v>
       </c>
-      <c r="J102" s="65" t="n">
+      <c r="J102" s="60" t="n">
         <v>45199</v>
       </c>
       <c r="K102" t="n">
         <v>92</v>
       </c>
+      <c r="Q102" s="65" t="n"/>
+      <c r="R102" s="65" t="n"/>
+      <c r="S102" s="65" t="n"/>
+      <c r="T102" s="65" t="n"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -22164,15 +22204,18 @@
           <t>Trial AI camera</t>
         </is>
       </c>
-      <c r="I103" s="65" t="n">
+      <c r="I103" s="60" t="n">
         <v>45108</v>
       </c>
-      <c r="J103" s="65" t="n">
+      <c r="J103" s="60" t="n">
         <v>45199</v>
       </c>
       <c r="K103" t="n">
         <v>91</v>
       </c>
+      <c r="R103" s="65" t="n"/>
+      <c r="S103" s="65" t="n"/>
+      <c r="T103" s="65" t="n"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -22208,15 +22251,17 @@
           <t>Quality</t>
         </is>
       </c>
-      <c r="I104" s="65" t="n">
+      <c r="I104" s="60" t="n">
         <v>45198</v>
       </c>
-      <c r="J104" s="65" t="n">
+      <c r="J104" s="60" t="n">
         <v>45206</v>
       </c>
       <c r="K104" t="n">
         <v>8</v>
       </c>
+      <c r="T104" s="65" t="n"/>
+      <c r="U104" s="65" t="n"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -22252,15 +22297,16 @@
           <t>S-CIP</t>
         </is>
       </c>
-      <c r="I105" s="65" t="n">
+      <c r="I105" s="60" t="n">
         <v>45146</v>
       </c>
-      <c r="J105" s="65" t="n">
+      <c r="J105" s="60" t="n">
         <v>45169</v>
       </c>
       <c r="K105" t="n">
         <v>23</v>
       </c>
+      <c r="S105" s="65" t="n"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -22296,15 +22342,17 @@
           <t>PSS</t>
         </is>
       </c>
-      <c r="I106" s="65" t="n">
+      <c r="I106" s="60" t="n">
         <v>45146</v>
       </c>
-      <c r="J106" s="65" t="n">
+      <c r="J106" s="60" t="n">
         <v>45199</v>
       </c>
       <c r="K106" t="n">
         <v>53</v>
       </c>
+      <c r="S106" s="65" t="n"/>
+      <c r="T106" s="65" t="n"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -22345,15 +22393,17 @@
           <t>Containment action for sealing issue</t>
         </is>
       </c>
-      <c r="I107" s="65" t="n">
+      <c r="I107" s="60" t="n">
         <v>45197</v>
       </c>
-      <c r="J107" s="65" t="n">
+      <c r="J107" s="60" t="n">
         <v>45204</v>
       </c>
       <c r="K107" t="n">
         <v>7</v>
       </c>
+      <c r="T107" s="65" t="n"/>
+      <c r="U107" s="65" t="n"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -22394,15 +22444,19 @@
           <t>New KLT release</t>
         </is>
       </c>
-      <c r="I108" s="65" t="n">
+      <c r="I108" s="60" t="n">
         <v>45166</v>
       </c>
-      <c r="J108" s="65" t="n">
+      <c r="J108" s="60" t="n">
         <v>45258</v>
       </c>
       <c r="K108" t="n">
         <v>92</v>
       </c>
+      <c r="S108" s="65" t="n"/>
+      <c r="T108" s="65" t="n"/>
+      <c r="U108" s="65" t="n"/>
+      <c r="V108" s="65" t="n"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -22443,15 +22497,18 @@
           <t>BLI - cycle 2_2023</t>
         </is>
       </c>
-      <c r="I109" s="65" t="n">
+      <c r="I109" s="60" t="n">
         <v>45127</v>
       </c>
-      <c r="J109" s="65" t="n">
+      <c r="J109" s="60" t="n">
         <v>45199</v>
       </c>
       <c r="K109" t="n">
         <v>72</v>
       </c>
+      <c r="R109" s="65" t="n"/>
+      <c r="S109" s="65" t="n"/>
+      <c r="T109" s="65" t="n"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -22492,15 +22549,17 @@
           <t>BLI - cycle 2_2023</t>
         </is>
       </c>
-      <c r="I110" s="65" t="n">
+      <c r="I110" s="60" t="n">
         <v>45112</v>
       </c>
-      <c r="J110" s="65" t="n">
+      <c r="J110" s="60" t="n">
         <v>45169</v>
       </c>
       <c r="K110" t="n">
         <v>57</v>
       </c>
+      <c r="R110" s="65" t="n"/>
+      <c r="S110" s="65" t="n"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -22541,15 +22600,20 @@
           <t>SMC AL13</t>
         </is>
       </c>
-      <c r="I111" s="65" t="n">
+      <c r="I111" s="60" t="n">
         <v>45159</v>
       </c>
-      <c r="J111" s="65" t="n">
+      <c r="J111" s="60" t="n">
         <v>45291</v>
       </c>
       <c r="K111" t="n">
         <v>132</v>
       </c>
+      <c r="S111" s="65" t="n"/>
+      <c r="T111" s="65" t="n"/>
+      <c r="U111" s="65" t="n"/>
+      <c r="V111" s="65" t="n"/>
+      <c r="W111" s="65" t="n"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -22590,15 +22654,18 @@
           <t>containment action of NC</t>
         </is>
       </c>
-      <c r="I112" s="65" t="n">
+      <c r="I112" s="60" t="n">
         <v>45094</v>
       </c>
-      <c r="J112" s="65" t="n">
+      <c r="J112" s="60" t="n">
         <v>45169</v>
       </c>
       <c r="K112" t="n">
         <v>75</v>
       </c>
+      <c r="Q112" s="65" t="n"/>
+      <c r="R112" s="65" t="n"/>
+      <c r="S112" s="65" t="n"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -22634,15 +22701,18 @@
           <t>S-CIP</t>
         </is>
       </c>
-      <c r="I113" s="65" t="n">
+      <c r="I113" s="60" t="n">
         <v>45138</v>
       </c>
-      <c r="J113" s="65" t="n">
+      <c r="J113" s="60" t="n">
         <v>45198</v>
       </c>
       <c r="K113" t="n">
         <v>60</v>
       </c>
+      <c r="R113" s="65" t="n"/>
+      <c r="S113" s="65" t="n"/>
+      <c r="T113" s="65" t="n"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -22678,15 +22748,18 @@
           <t>S-CIP</t>
         </is>
       </c>
-      <c r="I114" s="65" t="n">
+      <c r="I114" s="60" t="n">
         <v>45108</v>
       </c>
-      <c r="J114" s="65" t="n">
+      <c r="J114" s="60" t="n">
         <v>45199</v>
       </c>
       <c r="K114" t="n">
         <v>91</v>
       </c>
+      <c r="R114" s="65" t="n"/>
+      <c r="S114" s="65" t="n"/>
+      <c r="T114" s="65" t="n"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -22722,15 +22795,17 @@
           <t>Quality</t>
         </is>
       </c>
-      <c r="I115" s="65" t="n">
+      <c r="I115" s="60" t="n">
         <v>45082</v>
       </c>
-      <c r="J115" s="65" t="n">
+      <c r="J115" s="60" t="n">
         <v>45138</v>
       </c>
       <c r="K115" t="n">
         <v>56</v>
       </c>
+      <c r="Q115" s="65" t="n"/>
+      <c r="R115" s="65" t="n"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -22766,15 +22841,18 @@
           <t>S-CIP</t>
         </is>
       </c>
-      <c r="I116" s="65" t="n">
+      <c r="I116" s="60" t="n">
         <v>45055</v>
       </c>
-      <c r="J116" s="65" t="n">
+      <c r="J116" s="60" t="n">
         <v>45138</v>
       </c>
       <c r="K116" t="n">
         <v>83</v>
       </c>
+      <c r="P116" s="65" t="n"/>
+      <c r="Q116" s="65" t="n"/>
+      <c r="R116" s="65" t="n"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -22810,15 +22888,19 @@
           <t>PSS</t>
         </is>
       </c>
-      <c r="I117" s="65" t="n">
+      <c r="I117" s="60" t="n">
         <v>45041</v>
       </c>
-      <c r="J117" s="65" t="n">
+      <c r="J117" s="60" t="n">
         <v>45138</v>
       </c>
       <c r="K117" t="n">
         <v>97</v>
       </c>
+      <c r="O117" s="65" t="n"/>
+      <c r="P117" s="65" t="n"/>
+      <c r="Q117" s="65" t="n"/>
+      <c r="R117" s="65" t="n"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -22854,15 +22936,18 @@
           <t>S-CIP</t>
         </is>
       </c>
-      <c r="I118" s="65" t="n">
+      <c r="I118" s="60" t="n">
         <v>45058</v>
       </c>
-      <c r="J118" s="65" t="n">
+      <c r="J118" s="60" t="n">
         <v>45138</v>
       </c>
       <c r="K118" t="n">
         <v>80</v>
       </c>
+      <c r="P118" s="65" t="n"/>
+      <c r="Q118" s="65" t="n"/>
+      <c r="R118" s="65" t="n"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -22903,15 +22988,18 @@
           <t>TWI during run BLI</t>
         </is>
       </c>
-      <c r="I119" s="65" t="n">
+      <c r="I119" s="60" t="n">
         <v>45048</v>
       </c>
-      <c r="J119" s="65" t="n">
+      <c r="J119" s="60" t="n">
         <v>45138</v>
       </c>
       <c r="K119" t="n">
         <v>90</v>
       </c>
+      <c r="P119" s="65" t="n"/>
+      <c r="Q119" s="65" t="n"/>
+      <c r="R119" s="65" t="n"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -22952,15 +23040,19 @@
           <t>TWI during run BLI</t>
         </is>
       </c>
-      <c r="I120" s="65" t="n">
+      <c r="I120" s="60" t="n">
         <v>45044</v>
       </c>
-      <c r="J120" s="65" t="n">
+      <c r="J120" s="60" t="n">
         <v>45138</v>
       </c>
       <c r="K120" t="n">
         <v>94</v>
       </c>
+      <c r="O120" s="65" t="n"/>
+      <c r="P120" s="65" t="n"/>
+      <c r="Q120" s="65" t="n"/>
+      <c r="R120" s="65" t="n"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -23001,15 +23093,19 @@
           <t>Trial AI camera</t>
         </is>
       </c>
-      <c r="I121" s="65" t="n">
+      <c r="I121" s="60" t="n">
         <v>45056</v>
       </c>
-      <c r="J121" s="65" t="n">
+      <c r="J121" s="60" t="n">
         <v>45143</v>
       </c>
       <c r="K121" t="n">
         <v>87</v>
       </c>
+      <c r="P121" s="65" t="n"/>
+      <c r="Q121" s="65" t="n"/>
+      <c r="R121" s="65" t="n"/>
+      <c r="S121" s="65" t="n"/>
     </row>
     <row r="122" hidden="1" s="52">
       <c r="A122" t="n">
@@ -23035,8 +23131,8 @@
           <t>Nguyen Van Ry (HcP/MFE3.1)</t>
         </is>
       </c>
-      <c r="I122" s="65" t="n"/>
-      <c r="J122" s="65" t="n"/>
+      <c r="I122" s="59" t="n"/>
+      <c r="J122" s="59" t="n"/>
       <c r="K122" t="n">
         <v/>
       </c>
@@ -23075,15 +23171,19 @@
           <t>PSS</t>
         </is>
       </c>
-      <c r="I123" s="65" t="n">
+      <c r="I123" s="60" t="n">
         <v>45033</v>
       </c>
-      <c r="J123" s="65" t="n">
+      <c r="J123" s="60" t="n">
         <v>45138</v>
       </c>
       <c r="K123" t="n">
         <v>105</v>
       </c>
+      <c r="O123" s="65" t="n"/>
+      <c r="P123" s="65" t="n"/>
+      <c r="Q123" s="65" t="n"/>
+      <c r="R123" s="65" t="n"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -23119,15 +23219,22 @@
           <t>Quality</t>
         </is>
       </c>
-      <c r="I124" s="65" t="n">
+      <c r="I124" s="60" t="n">
         <v>44943</v>
       </c>
-      <c r="J124" s="65" t="n">
+      <c r="J124" s="60" t="n">
         <v>45120</v>
       </c>
       <c r="K124" t="n">
         <v>177</v>
       </c>
+      <c r="L124" s="65" t="n"/>
+      <c r="M124" s="65" t="n"/>
+      <c r="N124" s="65" t="n"/>
+      <c r="O124" s="65" t="n"/>
+      <c r="P124" s="65" t="n"/>
+      <c r="Q124" s="65" t="n"/>
+      <c r="R124" s="65" t="n"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -23158,15 +23265,17 @@
           <t>LE</t>
         </is>
       </c>
-      <c r="I125" s="65" t="n">
+      <c r="I125" s="60" t="n">
         <v>45086</v>
       </c>
-      <c r="J125" s="65" t="n">
+      <c r="J125" s="60" t="n">
         <v>45136</v>
       </c>
       <c r="K125" t="n">
         <v>50</v>
       </c>
+      <c r="Q125" s="65" t="n"/>
+      <c r="R125" s="65" t="n"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -23207,15 +23316,17 @@
           <t>Fail DC EC</t>
         </is>
       </c>
-      <c r="I126" s="65" t="n">
+      <c r="I126" s="60" t="n">
         <v>45084</v>
       </c>
-      <c r="J126" s="65" t="n">
+      <c r="J126" s="60" t="n">
         <v>45127</v>
       </c>
       <c r="K126" t="n">
         <v>43</v>
       </c>
+      <c r="Q126" s="65" t="n"/>
+      <c r="R126" s="65" t="n"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -23251,15 +23362,20 @@
           <t>S-CIP</t>
         </is>
       </c>
-      <c r="I127" s="65" t="n">
+      <c r="I127" s="60" t="n">
         <v>45004</v>
       </c>
-      <c r="J127" s="65" t="n">
+      <c r="J127" s="60" t="n">
         <v>45138</v>
       </c>
       <c r="K127" t="n">
         <v>134</v>
       </c>
+      <c r="N127" s="65" t="n"/>
+      <c r="O127" s="65" t="n"/>
+      <c r="P127" s="65" t="n"/>
+      <c r="Q127" s="65" t="n"/>
+      <c r="R127" s="65" t="n"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -23300,15 +23416,19 @@
           <t>BLI - cycle 2_2023</t>
         </is>
       </c>
-      <c r="I128" s="65" t="n">
+      <c r="I128" s="60" t="n">
         <v>45082</v>
       </c>
-      <c r="J128" s="65" t="n">
+      <c r="J128" s="60" t="n">
         <v>45174</v>
       </c>
       <c r="K128" t="n">
         <v>92</v>
       </c>
+      <c r="Q128" s="65" t="n"/>
+      <c r="R128" s="65" t="n"/>
+      <c r="S128" s="65" t="n"/>
+      <c r="T128" s="65" t="n"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -23349,15 +23469,17 @@
           <t>Request from MSE2</t>
         </is>
       </c>
-      <c r="I129" s="65" t="n">
+      <c r="I129" s="60" t="n">
         <v>45126</v>
       </c>
-      <c r="J129" s="65" t="n">
+      <c r="J129" s="60" t="n">
         <v>45169</v>
       </c>
       <c r="K129" t="n">
         <v>43</v>
       </c>
+      <c r="R129" s="65" t="n"/>
+      <c r="S129" s="65" t="n"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -23398,15 +23520,17 @@
           <t>Short term in 1 month to reduce block belts</t>
         </is>
       </c>
-      <c r="I130" s="65" t="n">
+      <c r="I130" s="60" t="n">
         <v>45061</v>
       </c>
-      <c r="J130" s="65" t="n">
+      <c r="J130" s="60" t="n">
         <v>45107</v>
       </c>
       <c r="K130" t="n">
         <v>46</v>
       </c>
+      <c r="P130" s="65" t="n"/>
+      <c r="Q130" s="65" t="n"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -23447,15 +23571,16 @@
           <t>BLI - cycle 2_2023</t>
         </is>
       </c>
-      <c r="I131" s="65" t="n">
+      <c r="I131" s="60" t="n">
         <v>45083</v>
       </c>
-      <c r="J131" s="65" t="n">
+      <c r="J131" s="60" t="n">
         <v>45107</v>
       </c>
       <c r="K131" t="n">
         <v>24</v>
       </c>
+      <c r="Q131" s="65" t="n"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -23491,15 +23616,19 @@
           <t>S-CIP</t>
         </is>
       </c>
-      <c r="I132" s="65" t="n">
+      <c r="I132" s="60" t="n">
         <v>45012</v>
       </c>
-      <c r="J132" s="65" t="n">
+      <c r="J132" s="60" t="n">
         <v>45107</v>
       </c>
       <c r="K132" t="n">
         <v>95</v>
       </c>
+      <c r="N132" s="65" t="n"/>
+      <c r="O132" s="65" t="n"/>
+      <c r="P132" s="65" t="n"/>
+      <c r="Q132" s="65" t="n"/>
     </row>
     <row r="133" hidden="1" s="52">
       <c r="A133" t="n">
@@ -23525,8 +23654,8 @@
           <t>Tao Ve Dan (HcP/MFE3.1)</t>
         </is>
       </c>
-      <c r="I133" s="65" t="n"/>
-      <c r="J133" s="65" t="n"/>
+      <c r="I133" s="59" t="n"/>
+      <c r="J133" s="59" t="n"/>
       <c r="K133" t="n">
         <v/>
       </c>
@@ -23565,15 +23694,18 @@
           <t>S-CIP</t>
         </is>
       </c>
-      <c r="I134" s="65" t="n">
+      <c r="I134" s="60" t="n">
         <v>45042</v>
       </c>
-      <c r="J134" s="65" t="n">
+      <c r="J134" s="60" t="n">
         <v>45107</v>
       </c>
       <c r="K134" t="n">
         <v>65</v>
       </c>
+      <c r="O134" s="65" t="n"/>
+      <c r="P134" s="65" t="n"/>
+      <c r="Q134" s="65" t="n"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -23609,15 +23741,18 @@
           <t>S-CIP</t>
         </is>
       </c>
-      <c r="I135" s="65" t="n">
+      <c r="I135" s="60" t="n">
         <v>45005</v>
       </c>
-      <c r="J135" s="65" t="n">
+      <c r="J135" s="60" t="n">
         <v>45077</v>
       </c>
       <c r="K135" t="n">
         <v>72</v>
       </c>
+      <c r="N135" s="65" t="n"/>
+      <c r="O135" s="65" t="n"/>
+      <c r="P135" s="65" t="n"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -23653,15 +23788,19 @@
           <t>Quality</t>
         </is>
       </c>
-      <c r="I136" s="65" t="n">
+      <c r="I136" s="60" t="n">
         <v>44979</v>
       </c>
-      <c r="J136" s="65" t="n">
+      <c r="J136" s="60" t="n">
         <v>45076</v>
       </c>
       <c r="K136" t="n">
         <v>97</v>
       </c>
+      <c r="M136" s="65" t="n"/>
+      <c r="N136" s="65" t="n"/>
+      <c r="O136" s="65" t="n"/>
+      <c r="P136" s="65" t="n"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -23697,15 +23836,19 @@
           <t>Quality</t>
         </is>
       </c>
-      <c r="I137" s="65" t="n">
+      <c r="I137" s="60" t="n">
         <v>45004</v>
       </c>
-      <c r="J137" s="65" t="n">
+      <c r="J137" s="60" t="n">
         <v>45096</v>
       </c>
       <c r="K137" t="n">
         <v>92</v>
       </c>
+      <c r="N137" s="65" t="n"/>
+      <c r="O137" s="65" t="n"/>
+      <c r="P137" s="65" t="n"/>
+      <c r="Q137" s="65" t="n"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -23746,15 +23889,19 @@
           <t>containment action of NC</t>
         </is>
       </c>
-      <c r="I138" s="65" t="n">
+      <c r="I138" s="60" t="n">
         <v>44972</v>
       </c>
-      <c r="J138" s="65" t="n">
+      <c r="J138" s="60" t="n">
         <v>45061</v>
       </c>
       <c r="K138" t="n">
         <v>89</v>
       </c>
+      <c r="M138" s="65" t="n"/>
+      <c r="N138" s="65" t="n"/>
+      <c r="O138" s="65" t="n"/>
+      <c r="P138" s="65" t="n"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -23790,15 +23937,22 @@
           <t>Quality</t>
         </is>
       </c>
-      <c r="I139" s="65" t="n">
+      <c r="I139" s="60" t="n">
         <v>44963</v>
       </c>
-      <c r="J139" s="65" t="n">
+      <c r="J139" s="60" t="n">
         <v>45139</v>
       </c>
       <c r="K139" t="n">
         <v>176</v>
       </c>
+      <c r="M139" s="65" t="n"/>
+      <c r="N139" s="65" t="n"/>
+      <c r="O139" s="65" t="n"/>
+      <c r="P139" s="65" t="n"/>
+      <c r="Q139" s="65" t="n"/>
+      <c r="R139" s="65" t="n"/>
+      <c r="S139" s="65" t="n"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -23839,15 +23993,17 @@
           <t>Trial AI camera</t>
         </is>
       </c>
-      <c r="I140" s="65" t="n">
+      <c r="I140" s="60" t="n">
         <v>45012</v>
       </c>
-      <c r="J140" s="65" t="n">
+      <c r="J140" s="60" t="n">
         <v>45043</v>
       </c>
       <c r="K140" t="n">
         <v>31</v>
       </c>
+      <c r="N140" s="65" t="n"/>
+      <c r="O140" s="65" t="n"/>
     </row>
     <row r="141" hidden="1" s="52">
       <c r="A141" t="n">
@@ -23873,8 +24029,8 @@
           <t>Bui Chau Ngoc (HcP/MFE3.1)</t>
         </is>
       </c>
-      <c r="I141" s="65" t="n"/>
-      <c r="J141" s="65" t="n"/>
+      <c r="I141" s="59" t="n"/>
+      <c r="J141" s="59" t="n"/>
       <c r="K141" t="n">
         <v/>
       </c>
@@ -23918,15 +24074,16 @@
           <t>Metal Contamination</t>
         </is>
       </c>
-      <c r="I142" s="65" t="n">
+      <c r="I142" s="60" t="n">
         <v>45028</v>
       </c>
-      <c r="J142" s="65" t="n">
+      <c r="J142" s="60" t="n">
         <v>45046</v>
       </c>
       <c r="K142" t="n">
         <v>18</v>
       </c>
+      <c r="O142" s="65" t="n"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -23967,15 +24124,19 @@
           <t>Optimize supermarket operator</t>
         </is>
       </c>
-      <c r="I143" s="65" t="n">
+      <c r="I143" s="60" t="n">
         <v>44963</v>
       </c>
-      <c r="J143" s="65" t="n">
+      <c r="J143" s="60" t="n">
         <v>45077</v>
       </c>
       <c r="K143" t="n">
         <v>114</v>
       </c>
+      <c r="M143" s="65" t="n"/>
+      <c r="N143" s="65" t="n"/>
+      <c r="O143" s="65" t="n"/>
+      <c r="P143" s="65" t="n"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -24016,15 +24177,17 @@
           <t>Short term in 1 month to reduce block belts</t>
         </is>
       </c>
-      <c r="I144" s="65" t="n">
+      <c r="I144" s="60" t="n">
         <v>45010</v>
       </c>
-      <c r="J144" s="65" t="n">
+      <c r="J144" s="60" t="n">
         <v>45045</v>
       </c>
       <c r="K144" t="n">
         <v>35</v>
       </c>
+      <c r="N144" s="65" t="n"/>
+      <c r="O144" s="65" t="n"/>
     </row>
     <row r="145" hidden="1" s="52">
       <c r="A145" t="n">
@@ -24060,8 +24223,8 @@
           <t>trial new dashboard</t>
         </is>
       </c>
-      <c r="I145" s="65" t="n"/>
-      <c r="J145" s="65" t="n"/>
+      <c r="I145" s="59" t="n"/>
+      <c r="J145" s="59" t="n"/>
       <c r="K145" t="n">
         <v/>
       </c>
@@ -24105,15 +24268,17 @@
           <t>BLI: Reduce mix changeover on NG lines</t>
         </is>
       </c>
-      <c r="I146" s="65" t="n">
+      <c r="I146" s="60" t="n">
         <v>45017</v>
       </c>
-      <c r="J146" s="65" t="n">
+      <c r="J146" s="60" t="n">
         <v>45048</v>
       </c>
       <c r="K146" t="n">
         <v>31</v>
       </c>
+      <c r="O146" s="65" t="n"/>
+      <c r="P146" s="65" t="n"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -24149,15 +24314,17 @@
           <t>S-CIP</t>
         </is>
       </c>
-      <c r="I147" s="65" t="n">
+      <c r="I147" s="60" t="n">
         <v>44994</v>
       </c>
-      <c r="J147" s="65" t="n">
+      <c r="J147" s="60" t="n">
         <v>45046</v>
       </c>
       <c r="K147" t="n">
         <v>52</v>
       </c>
+      <c r="N147" s="65" t="n"/>
+      <c r="O147" s="65" t="n"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -24193,15 +24360,17 @@
           <t>S-CIP</t>
         </is>
       </c>
-      <c r="I148" s="65" t="n">
+      <c r="I148" s="60" t="n">
         <v>44958</v>
       </c>
-      <c r="J148" s="65" t="n">
+      <c r="J148" s="60" t="n">
         <v>45016</v>
       </c>
       <c r="K148" t="n">
         <v>58</v>
       </c>
+      <c r="M148" s="65" t="n"/>
+      <c r="N148" s="65" t="n"/>
     </row>
     <row r="149" hidden="1" s="52">
       <c r="A149" t="n">
@@ -24232,8 +24401,8 @@
           <t>S-CIP</t>
         </is>
       </c>
-      <c r="I149" s="65" t="n"/>
-      <c r="J149" s="65" t="n"/>
+      <c r="I149" s="59" t="n"/>
+      <c r="J149" s="59" t="n"/>
       <c r="K149" t="n">
         <v/>
       </c>
@@ -24262,8 +24431,8 @@
           <t>Vo Thien Tam (HcP/MFE3.1)</t>
         </is>
       </c>
-      <c r="I150" s="65" t="n"/>
-      <c r="J150" s="65" t="n"/>
+      <c r="I150" s="59" t="n"/>
+      <c r="J150" s="59" t="n"/>
       <c r="K150" t="n">
         <v/>
       </c>
@@ -24292,8 +24461,8 @@
           <t>Do Quoc Vinh (HcP/MFE3.1)</t>
         </is>
       </c>
-      <c r="I151" s="65" t="n"/>
-      <c r="J151" s="65" t="n"/>
+      <c r="I151" s="59" t="n"/>
+      <c r="J151" s="59" t="n"/>
       <c r="K151" t="n">
         <v/>
       </c>
@@ -24332,15 +24501,18 @@
           <t>S-CIP</t>
         </is>
       </c>
-      <c r="I152" s="65" t="n">
+      <c r="I152" s="60" t="n">
         <v>44936</v>
       </c>
-      <c r="J152" s="65" t="n">
+      <c r="J152" s="60" t="n">
         <v>44994</v>
       </c>
       <c r="K152" t="n">
         <v>58</v>
       </c>
+      <c r="L152" s="65" t="n"/>
+      <c r="M152" s="65" t="n"/>
+      <c r="N152" s="65" t="n"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -24376,15 +24548,20 @@
           <t>S-CIP</t>
         </is>
       </c>
-      <c r="I153" s="65" t="n">
+      <c r="I153" s="60" t="n">
         <v>44977</v>
       </c>
-      <c r="J153" s="65" t="n">
+      <c r="J153" s="60" t="n">
         <v>45107</v>
       </c>
       <c r="K153" t="n">
         <v>130</v>
       </c>
+      <c r="M153" s="65" t="n"/>
+      <c r="N153" s="65" t="n"/>
+      <c r="O153" s="65" t="n"/>
+      <c r="P153" s="65" t="n"/>
+      <c r="Q153" s="65" t="n"/>
     </row>
     <row r="154" hidden="1" s="52">
       <c r="A154" t="n">
@@ -24405,8 +24582,8 @@
           <t>Hướng Dẫn in lại tem tại packing AL13</t>
         </is>
       </c>
-      <c r="I154" s="65" t="n"/>
-      <c r="J154" s="65" t="n"/>
+      <c r="I154" s="59" t="n"/>
+      <c r="J154" s="59" t="n"/>
       <c r="K154" t="n">
         <v/>
       </c>
@@ -24450,15 +24627,17 @@
           <t xml:space="preserve">LPC </t>
         </is>
       </c>
-      <c r="I155" s="65" t="n">
+      <c r="I155" s="60" t="n">
         <v>44964</v>
       </c>
-      <c r="J155" s="65" t="n">
+      <c r="J155" s="60" t="n">
         <v>44992</v>
       </c>
       <c r="K155" t="n">
         <v>28</v>
       </c>
+      <c r="M155" s="65" t="n"/>
+      <c r="N155" s="65" t="n"/>
     </row>
     <row r="156" hidden="1" s="52">
       <c r="A156" t="n">
@@ -24484,8 +24663,8 @@
           <t>Vo Thien Tam (HcP/MFE3.1)</t>
         </is>
       </c>
-      <c r="I156" s="65" t="n"/>
-      <c r="J156" s="65" t="n"/>
+      <c r="I156" s="59" t="n"/>
+      <c r="J156" s="59" t="n"/>
       <c r="K156" t="n">
         <v/>
       </c>
@@ -24529,15 +24708,17 @@
           <t>Short term in 1 month to reduce block belts</t>
         </is>
       </c>
-      <c r="I157" s="65" t="n">
+      <c r="I157" s="60" t="n">
         <v>44939</v>
       </c>
-      <c r="J157" s="65" t="n">
+      <c r="J157" s="60" t="n">
         <v>44970</v>
       </c>
       <c r="K157" t="n">
         <v>31</v>
       </c>
+      <c r="L157" s="65" t="n"/>
+      <c r="M157" s="65" t="n"/>
     </row>
     <row r="158" hidden="1" s="52">
       <c r="A158" t="n">
@@ -24563,8 +24744,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3.1)</t>
         </is>
       </c>
-      <c r="I158" s="65" t="n"/>
-      <c r="J158" s="65" t="n"/>
+      <c r="I158" s="59" t="n"/>
+      <c r="J158" s="59" t="n"/>
       <c r="K158" t="n">
         <v/>
       </c>
@@ -24593,8 +24774,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3.1)</t>
         </is>
       </c>
-      <c r="I159" s="65" t="n"/>
-      <c r="J159" s="65" t="n"/>
+      <c r="I159" s="59" t="n"/>
+      <c r="J159" s="59" t="n"/>
       <c r="K159" t="n">
         <v/>
       </c>
@@ -24623,8 +24804,8 @@
           <t>Bui Chau Ngoc (HcP/MFE3.1)</t>
         </is>
       </c>
-      <c r="I160" s="65" t="n"/>
-      <c r="J160" s="65" t="n"/>
+      <c r="I160" s="59" t="n"/>
+      <c r="J160" s="59" t="n"/>
       <c r="K160" t="n">
         <v/>
       </c>
@@ -24653,8 +24834,8 @@
           <t>Nguyen Van Ry (HcP/MFE3.1)</t>
         </is>
       </c>
-      <c r="I161" s="65" t="n"/>
-      <c r="J161" s="65" t="n"/>
+      <c r="I161" s="59" t="n"/>
+      <c r="J161" s="59" t="n"/>
       <c r="K161" t="n">
         <v/>
       </c>
@@ -24693,8 +24874,8 @@
           <t>containment action before install block back system</t>
         </is>
       </c>
-      <c r="I162" s="65" t="n"/>
-      <c r="J162" s="65" t="n"/>
+      <c r="I162" s="59" t="n"/>
+      <c r="J162" s="59" t="n"/>
       <c r="K162" t="n">
         <v/>
       </c>
@@ -24718,8 +24899,8 @@
           <t>Cập nhật hướng dẫn Changeover nhỏ OG</t>
         </is>
       </c>
-      <c r="I163" s="65" t="n"/>
-      <c r="J163" s="65" t="n"/>
+      <c r="I163" s="59" t="n"/>
+      <c r="J163" s="59" t="n"/>
       <c r="K163" t="n">
         <v/>
       </c>
@@ -24758,8 +24939,8 @@
           <t>Short term in 1 month to reduce block belts</t>
         </is>
       </c>
-      <c r="I164" s="65" t="n"/>
-      <c r="J164" s="65" t="n"/>
+      <c r="I164" s="59" t="n"/>
+      <c r="J164" s="59" t="n"/>
       <c r="K164" t="n">
         <v/>
       </c>
@@ -24788,8 +24969,8 @@
           <t>Nguyen Van Ry (HcP/MFE3.1)</t>
         </is>
       </c>
-      <c r="I165" s="65" t="n"/>
-      <c r="J165" s="65" t="n"/>
+      <c r="I165" s="59" t="n"/>
+      <c r="J165" s="59" t="n"/>
       <c r="K165" t="n">
         <v/>
       </c>
@@ -24818,8 +24999,8 @@
           <t>Tao Ve Dan (HcP/MFE3.1)</t>
         </is>
       </c>
-      <c r="I166" s="65" t="n"/>
-      <c r="J166" s="65" t="n"/>
+      <c r="I166" s="59" t="n"/>
+      <c r="J166" s="59" t="n"/>
       <c r="K166" t="n">
         <v/>
       </c>
@@ -24848,8 +25029,8 @@
           <t>Vo Thien Tam (HcP/MFE3.1)</t>
         </is>
       </c>
-      <c r="I167" s="65" t="n"/>
-      <c r="J167" s="65" t="n"/>
+      <c r="I167" s="59" t="n"/>
+      <c r="J167" s="59" t="n"/>
       <c r="K167" t="n">
         <v/>
       </c>
@@ -24873,8 +25054,8 @@
           <t>HD xử lý khi đầy thùng thành phẩm nhưng cylinder không hạ (áp dụng cho  AL6</t>
         </is>
       </c>
-      <c r="I168" s="65" t="n"/>
-      <c r="J168" s="65" t="n"/>
+      <c r="I168" s="59" t="n"/>
+      <c r="J168" s="59" t="n"/>
       <c r="K168" t="n">
         <v/>
       </c>
@@ -24903,8 +25084,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3.1)</t>
         </is>
       </c>
-      <c r="I169" s="65" t="n"/>
-      <c r="J169" s="65" t="n"/>
+      <c r="I169" s="59" t="n"/>
+      <c r="J169" s="59" t="n"/>
       <c r="K169" t="n">
         <v/>
       </c>
@@ -24933,8 +25114,8 @@
           <t>Tao Ve Dan (HcP/MFE3.1)</t>
         </is>
       </c>
-      <c r="I170" s="65" t="n"/>
-      <c r="J170" s="65" t="n"/>
+      <c r="I170" s="59" t="n"/>
+      <c r="J170" s="59" t="n"/>
       <c r="K170" t="n">
         <v/>
       </c>
@@ -24963,8 +25144,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3.1)</t>
         </is>
       </c>
-      <c r="I171" s="65" t="n"/>
-      <c r="J171" s="65" t="n"/>
+      <c r="I171" s="59" t="n"/>
+      <c r="J171" s="59" t="n"/>
       <c r="K171" t="n">
         <v/>
       </c>
@@ -24993,8 +25174,8 @@
           <t>Tao Ve Dan (HcP/MFE3.1)</t>
         </is>
       </c>
-      <c r="I172" s="65" t="n"/>
-      <c r="J172" s="65" t="n"/>
+      <c r="I172" s="59" t="n"/>
+      <c r="J172" s="59" t="n"/>
       <c r="K172" t="n">
         <v/>
       </c>
@@ -25023,8 +25204,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3.1)</t>
         </is>
       </c>
-      <c r="I173" s="65" t="n"/>
-      <c r="J173" s="65" t="n"/>
+      <c r="I173" s="59" t="n"/>
+      <c r="J173" s="59" t="n"/>
       <c r="K173" t="n">
         <v/>
       </c>
@@ -25053,8 +25234,8 @@
           <t>Nguyen Tan Vi (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I174" s="65" t="n"/>
-      <c r="J174" s="65" t="n"/>
+      <c r="I174" s="59" t="n"/>
+      <c r="J174" s="59" t="n"/>
       <c r="K174" t="n">
         <v/>
       </c>
@@ -25083,8 +25264,8 @@
           <t>Tao Ve Dan (HcP/MFE3.1)</t>
         </is>
       </c>
-      <c r="I175" s="65" t="n"/>
-      <c r="J175" s="65" t="n"/>
+      <c r="I175" s="59" t="n"/>
+      <c r="J175" s="59" t="n"/>
       <c r="K175" t="n">
         <v/>
       </c>
@@ -25113,8 +25294,8 @@
           <t>Lam Thai Nhat Toan (HcP/MFE3.2)</t>
         </is>
       </c>
-      <c r="I176" s="65" t="n"/>
-      <c r="J176" s="65" t="n"/>
+      <c r="I176" s="59" t="n"/>
+      <c r="J176" s="59" t="n"/>
       <c r="K176" t="n">
         <v/>
       </c>
@@ -25143,8 +25324,8 @@
           <t>Tao Ve Dan (HcP/MFE3.1)</t>
         </is>
       </c>
-      <c r="I177" s="65" t="n"/>
-      <c r="J177" s="65" t="n"/>
+      <c r="I177" s="59" t="n"/>
+      <c r="J177" s="59" t="n"/>
       <c r="K177" t="n">
         <v/>
       </c>
@@ -25168,8 +25349,8 @@
           <t>HD scrap belt trên AL 13</t>
         </is>
       </c>
-      <c r="I178" s="65" t="n"/>
-      <c r="J178" s="65" t="n"/>
+      <c r="I178" s="59" t="n"/>
+      <c r="J178" s="59" t="n"/>
       <c r="K178" t="n">
         <v/>
       </c>
@@ -25198,8 +25379,8 @@
           <t>Tran Huu Tien (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I179" s="65" t="n"/>
-      <c r="J179" s="65" t="n"/>
+      <c r="I179" s="59" t="n"/>
+      <c r="J179" s="59" t="n"/>
       <c r="K179" t="n">
         <v/>
       </c>
@@ -25228,8 +25409,8 @@
           <t>Vang Tien Thang (HcP/MFE3.1)</t>
         </is>
       </c>
-      <c r="I180" s="65" t="n"/>
-      <c r="J180" s="65" t="n"/>
+      <c r="I180" s="59" t="n"/>
+      <c r="J180" s="59" t="n"/>
       <c r="K180" t="n">
         <v/>
       </c>
@@ -25253,8 +25434,8 @@
           <t>HD xử lý khi cutain sensor tại máy nhúng dầu bị lỗi (áp dụng cho AL 13</t>
         </is>
       </c>
-      <c r="I181" s="65" t="n"/>
-      <c r="J181" s="65" t="n"/>
+      <c r="I181" s="59" t="n"/>
+      <c r="J181" s="59" t="n"/>
       <c r="K181" t="n">
         <v/>
       </c>
@@ -25283,8 +25464,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3.1)</t>
         </is>
       </c>
-      <c r="I182" s="65" t="n"/>
-      <c r="J182" s="65" t="n"/>
+      <c r="I182" s="59" t="n"/>
+      <c r="J182" s="59" t="n"/>
       <c r="K182" t="n">
         <v/>
       </c>
@@ -25313,8 +25494,8 @@
           <t>Vo Thien Tam (HcP/MFE3.1)</t>
         </is>
       </c>
-      <c r="I183" s="65" t="n"/>
-      <c r="J183" s="65" t="n"/>
+      <c r="I183" s="59" t="n"/>
+      <c r="J183" s="59" t="n"/>
       <c r="K183" t="n">
         <v/>
       </c>
@@ -25343,8 +25524,8 @@
           <t>Tao Ve Dan (HcP/MFE3.1)</t>
         </is>
       </c>
-      <c r="I184" s="65" t="n"/>
-      <c r="J184" s="65" t="n"/>
+      <c r="I184" s="59" t="n"/>
+      <c r="J184" s="59" t="n"/>
       <c r="K184" t="n">
         <v/>
       </c>
@@ -25373,8 +25554,8 @@
           <t>Tao Ve Dan (HcP/MFE3.1)</t>
         </is>
       </c>
-      <c r="I185" s="65" t="n"/>
-      <c r="J185" s="65" t="n"/>
+      <c r="I185" s="59" t="n"/>
+      <c r="J185" s="59" t="n"/>
       <c r="K185" t="n">
         <v/>
       </c>
@@ -25403,8 +25584,8 @@
           <t>Nguyen Van Ry (HcP/MFE3.1)</t>
         </is>
       </c>
-      <c r="I186" s="65" t="n"/>
-      <c r="J186" s="65" t="n"/>
+      <c r="I186" s="59" t="n"/>
+      <c r="J186" s="59" t="n"/>
       <c r="K186" t="n">
         <v/>
       </c>
@@ -25433,8 +25614,8 @@
           <t>Tran Huu Tien (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I187" s="65" t="n"/>
-      <c r="J187" s="65" t="n"/>
+      <c r="I187" s="59" t="n"/>
+      <c r="J187" s="59" t="n"/>
       <c r="K187" t="n">
         <v/>
       </c>
@@ -25463,8 +25644,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3.1)</t>
         </is>
       </c>
-      <c r="I188" s="65" t="n"/>
-      <c r="J188" s="65" t="n"/>
+      <c r="I188" s="59" t="n"/>
+      <c r="J188" s="59" t="n"/>
       <c r="K188" t="n">
         <v/>
       </c>
@@ -25493,8 +25674,8 @@
           <t>Vo Thien Tam (HcP/MFE3.1)</t>
         </is>
       </c>
-      <c r="I189" s="65" t="n"/>
-      <c r="J189" s="65" t="n"/>
+      <c r="I189" s="59" t="n"/>
+      <c r="J189" s="59" t="n"/>
       <c r="K189" t="n">
         <v/>
       </c>
@@ -25518,8 +25699,8 @@
           <t>Block belt 089/102 AL8 AL12 (belt 089/102 from Al12</t>
         </is>
       </c>
-      <c r="I190" s="65" t="n"/>
-      <c r="J190" s="65" t="n"/>
+      <c r="I190" s="59" t="n"/>
+      <c r="J190" s="59" t="n"/>
       <c r="K190" t="n">
         <v/>
       </c>
@@ -25543,8 +25724,8 @@
           <t>Hướng dẫn phương pháp kiểm abnormal gap của belt tại Final</t>
         </is>
       </c>
-      <c r="I191" s="65" t="n"/>
-      <c r="J191" s="65" t="n"/>
+      <c r="I191" s="59" t="n"/>
+      <c r="J191" s="59" t="n"/>
       <c r="K191" t="n">
         <v/>
       </c>
@@ -25568,8 +25749,8 @@
           <t>Block belt 089/102 AL8 AL12 (belt 089/102 from AL12</t>
         </is>
       </c>
-      <c r="I192" s="65" t="n"/>
-      <c r="J192" s="65" t="n"/>
+      <c r="I192" s="59" t="n"/>
+      <c r="J192" s="59" t="n"/>
       <c r="K192" t="n">
         <v/>
       </c>
@@ -25593,8 +25774,8 @@
           <t>Hướng dẫn phương pháp kiểm abnormal gap của belt tại Final</t>
         </is>
       </c>
-      <c r="I193" s="65" t="n"/>
-      <c r="J193" s="65" t="n"/>
+      <c r="I193" s="59" t="n"/>
+      <c r="J193" s="59" t="n"/>
       <c r="K193" t="n">
         <v/>
       </c>
@@ -25618,8 +25799,8 @@
           <t>Hướng dẫn phương pháp kiểm abnormal gap của belt tại Final</t>
         </is>
       </c>
-      <c r="I194" s="65" t="n"/>
-      <c r="J194" s="65" t="n"/>
+      <c r="I194" s="59" t="n"/>
+      <c r="J194" s="59" t="n"/>
       <c r="K194" t="n">
         <v/>
       </c>
@@ -25643,8 +25824,8 @@
           <t>Hướng dân phương pháp kiểm abnormal gap tại 2A/Final on AL16</t>
         </is>
       </c>
-      <c r="I195" s="65" t="n"/>
-      <c r="J195" s="65" t="n"/>
+      <c r="I195" s="59" t="n"/>
+      <c r="J195" s="59" t="n"/>
       <c r="K195" t="n">
         <v/>
       </c>
@@ -25668,8 +25849,8 @@
           <t>Hướng dẫn phương pháp kiểm abnormal gap của belt tại Final</t>
         </is>
       </c>
-      <c r="I196" s="65" t="n"/>
-      <c r="J196" s="65" t="n"/>
+      <c r="I196" s="59" t="n"/>
+      <c r="J196" s="59" t="n"/>
       <c r="K196" t="n">
         <v/>
       </c>
@@ -25698,8 +25879,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3.1)</t>
         </is>
       </c>
-      <c r="I197" s="65" t="n"/>
-      <c r="J197" s="65" t="n"/>
+      <c r="I197" s="59" t="n"/>
+      <c r="J197" s="59" t="n"/>
       <c r="K197" t="n">
         <v/>
       </c>
@@ -25728,8 +25909,8 @@
           <t>Pham Quoc Dung (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I198" s="65" t="n"/>
-      <c r="J198" s="65" t="n"/>
+      <c r="I198" s="59" t="n"/>
+      <c r="J198" s="59" t="n"/>
       <c r="K198" t="n">
         <v/>
       </c>
@@ -25753,8 +25934,8 @@
           <t>Hướng Dẫn Thay Giấy In</t>
         </is>
       </c>
-      <c r="I199" s="65" t="n"/>
-      <c r="J199" s="65" t="n"/>
+      <c r="I199" s="59" t="n"/>
+      <c r="J199" s="59" t="n"/>
       <c r="K199" t="n">
         <v/>
       </c>
@@ -25783,8 +25964,8 @@
           <t>Vo Thien Tam (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I200" s="65" t="n"/>
-      <c r="J200" s="65" t="n"/>
+      <c r="I200" s="59" t="n"/>
+      <c r="J200" s="59" t="n"/>
       <c r="K200" t="n">
         <v/>
       </c>
@@ -25808,8 +25989,8 @@
           <t>Hướng dẫn kế hoạch chạy safe launch cho túi VCI type 5</t>
         </is>
       </c>
-      <c r="I201" s="65" t="n"/>
-      <c r="J201" s="65" t="n"/>
+      <c r="I201" s="59" t="n"/>
+      <c r="J201" s="59" t="n"/>
       <c r="K201" t="n">
         <v/>
       </c>
@@ -25833,8 +26014,8 @@
           <t>Lưu đồ hướng dẫn hành động với mẫu lỗi dính nhôm trên bề mặt Loopset 082 CKD trên AL06</t>
         </is>
       </c>
-      <c r="I202" s="65" t="n"/>
-      <c r="J202" s="65" t="n"/>
+      <c r="I202" s="59" t="n"/>
+      <c r="J202" s="59" t="n"/>
       <c r="K202" t="n">
         <v/>
       </c>
@@ -25863,8 +26044,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I203" s="65" t="n"/>
-      <c r="J203" s="65" t="n"/>
+      <c r="I203" s="59" t="n"/>
+      <c r="J203" s="59" t="n"/>
       <c r="K203" t="n">
         <v/>
       </c>
@@ -25893,8 +26074,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I204" s="65" t="n"/>
-      <c r="J204" s="65" t="n"/>
+      <c r="I204" s="59" t="n"/>
+      <c r="J204" s="59" t="n"/>
       <c r="K204" t="n">
         <v/>
       </c>
@@ -25923,8 +26104,8 @@
           <t>Do Quoc Vinh (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I205" s="65" t="n"/>
-      <c r="J205" s="65" t="n"/>
+      <c r="I205" s="59" t="n"/>
+      <c r="J205" s="59" t="n"/>
       <c r="K205" t="n">
         <v/>
       </c>
@@ -25953,8 +26134,8 @@
           <t>Lam Thai Nhat Toan (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I206" s="65" t="n"/>
-      <c r="J206" s="65" t="n"/>
+      <c r="I206" s="59" t="n"/>
+      <c r="J206" s="59" t="n"/>
       <c r="K206" t="n">
         <v/>
       </c>
@@ -25983,8 +26164,8 @@
           <t>Phan Van Phuc (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I207" s="65" t="n"/>
-      <c r="J207" s="65" t="n"/>
+      <c r="I207" s="59" t="n"/>
+      <c r="J207" s="59" t="n"/>
       <c r="K207" t="n">
         <v/>
       </c>
@@ -26013,8 +26194,8 @@
           <t>Nguyen Van Ry (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I208" s="65" t="n"/>
-      <c r="J208" s="65" t="n"/>
+      <c r="I208" s="59" t="n"/>
+      <c r="J208" s="59" t="n"/>
       <c r="K208" t="n">
         <v/>
       </c>
@@ -26043,8 +26224,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I209" s="65" t="n"/>
-      <c r="J209" s="65" t="n"/>
+      <c r="I209" s="59" t="n"/>
+      <c r="J209" s="59" t="n"/>
       <c r="K209" t="n">
         <v/>
       </c>
@@ -26073,8 +26254,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I210" s="65" t="n"/>
-      <c r="J210" s="65" t="n"/>
+      <c r="I210" s="59" t="n"/>
+      <c r="J210" s="59" t="n"/>
       <c r="K210" t="n">
         <v/>
       </c>
@@ -26103,8 +26284,8 @@
           <t>Dao Nguyen Nhat Huynh (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I211" s="65" t="n"/>
-      <c r="J211" s="65" t="n"/>
+      <c r="I211" s="59" t="n"/>
+      <c r="J211" s="59" t="n"/>
       <c r="K211" t="n">
         <v/>
       </c>
@@ -26133,8 +26314,8 @@
           <t>Nguyen Tan Vi (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I212" s="65" t="n"/>
-      <c r="J212" s="65" t="n"/>
+      <c r="I212" s="59" t="n"/>
+      <c r="J212" s="59" t="n"/>
       <c r="K212" t="n">
         <v/>
       </c>
@@ -26158,8 +26339,8 @@
           <t>Lưu đồ hướng dẫn hành động với mẫu lỗi dính nhôm trên bề mặt Loopset 082 CKD trên AL06</t>
         </is>
       </c>
-      <c r="I213" s="65" t="n"/>
-      <c r="J213" s="65" t="n"/>
+      <c r="I213" s="59" t="n"/>
+      <c r="J213" s="59" t="n"/>
       <c r="K213" t="n">
         <v/>
       </c>
@@ -26188,8 +26369,8 @@
           <t>Do Quoc Vinh (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I214" s="65" t="n"/>
-      <c r="J214" s="65" t="n"/>
+      <c r="I214" s="59" t="n"/>
+      <c r="J214" s="59" t="n"/>
       <c r="K214" t="n">
         <v/>
       </c>
@@ -26218,8 +26399,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I215" s="65" t="n"/>
-      <c r="J215" s="65" t="n"/>
+      <c r="I215" s="59" t="n"/>
+      <c r="J215" s="59" t="n"/>
       <c r="K215" t="n">
         <v/>
       </c>
@@ -26248,8 +26429,8 @@
           <t>Tao Ve Dan (HcP/MFE3.1)</t>
         </is>
       </c>
-      <c r="I216" s="65" t="n"/>
-      <c r="J216" s="65" t="n"/>
+      <c r="I216" s="59" t="n"/>
+      <c r="J216" s="59" t="n"/>
       <c r="K216" t="n">
         <v/>
       </c>
@@ -26278,8 +26459,8 @@
           <t>Vo Thien Tam (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I217" s="65" t="n"/>
-      <c r="J217" s="65" t="n"/>
+      <c r="I217" s="59" t="n"/>
+      <c r="J217" s="59" t="n"/>
       <c r="K217" t="n">
         <v/>
       </c>
@@ -26308,8 +26489,8 @@
           <t>Dao Nguyen Nhat Huynh (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I218" s="65" t="n"/>
-      <c r="J218" s="65" t="n"/>
+      <c r="I218" s="59" t="n"/>
+      <c r="J218" s="59" t="n"/>
       <c r="K218" t="n">
         <v/>
       </c>
@@ -26338,8 +26519,8 @@
           <t>Pham Quoc Dung (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I219" s="65" t="n"/>
-      <c r="J219" s="65" t="n"/>
+      <c r="I219" s="59" t="n"/>
+      <c r="J219" s="59" t="n"/>
       <c r="K219" t="n">
         <v/>
       </c>
@@ -26368,8 +26549,8 @@
           <t>Pham Quoc Dung (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I220" s="65" t="n"/>
-      <c r="J220" s="65" t="n"/>
+      <c r="I220" s="59" t="n"/>
+      <c r="J220" s="59" t="n"/>
       <c r="K220" t="n">
         <v/>
       </c>
@@ -26398,8 +26579,8 @@
           <t>Nguyen Tan Vi (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I221" s="65" t="n"/>
-      <c r="J221" s="65" t="n"/>
+      <c r="I221" s="59" t="n"/>
+      <c r="J221" s="59" t="n"/>
       <c r="K221" t="n">
         <v/>
       </c>
@@ -26428,8 +26609,8 @@
           <t>Nguyen Tan Vi (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I222" s="65" t="n"/>
-      <c r="J222" s="65" t="n"/>
+      <c r="I222" s="59" t="n"/>
+      <c r="J222" s="59" t="n"/>
       <c r="K222" t="n">
         <v/>
       </c>
@@ -26458,8 +26639,8 @@
           <t>Vo Thien Tam (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I223" s="65" t="n"/>
-      <c r="J223" s="65" t="n"/>
+      <c r="I223" s="59" t="n"/>
+      <c r="J223" s="59" t="n"/>
       <c r="K223" t="n">
         <v/>
       </c>
@@ -26488,8 +26669,8 @@
           <t>Nguyen Tan Vi (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I224" s="65" t="n"/>
-      <c r="J224" s="65" t="n"/>
+      <c r="I224" s="59" t="n"/>
+      <c r="J224" s="59" t="n"/>
       <c r="K224" t="n">
         <v/>
       </c>
@@ -26518,8 +26699,8 @@
           <t>Vang Tien Thang (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I225" s="65" t="n"/>
-      <c r="J225" s="65" t="n"/>
+      <c r="I225" s="59" t="n"/>
+      <c r="J225" s="59" t="n"/>
       <c r="K225" t="n">
         <v/>
       </c>
@@ -26548,8 +26729,8 @@
           <t>Vo Thien Tam (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I226" s="65" t="n"/>
-      <c r="J226" s="65" t="n"/>
+      <c r="I226" s="59" t="n"/>
+      <c r="J226" s="59" t="n"/>
       <c r="K226" t="n">
         <v/>
       </c>
@@ -26578,8 +26759,8 @@
           <t>Nguyen Tan Vi (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I227" s="65" t="n"/>
-      <c r="J227" s="65" t="n"/>
+      <c r="I227" s="59" t="n"/>
+      <c r="J227" s="59" t="n"/>
       <c r="K227" t="n">
         <v/>
       </c>
@@ -26608,8 +26789,8 @@
           <t>Nguyen Tan Vi (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I228" s="65" t="n"/>
-      <c r="J228" s="65" t="n"/>
+      <c r="I228" s="59" t="n"/>
+      <c r="J228" s="59" t="n"/>
       <c r="K228" t="n">
         <v/>
       </c>
@@ -26638,8 +26819,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I229" s="65" t="n"/>
-      <c r="J229" s="65" t="n"/>
+      <c r="I229" s="59" t="n"/>
+      <c r="J229" s="59" t="n"/>
       <c r="K229" t="n">
         <v/>
       </c>
@@ -26668,8 +26849,8 @@
           <t>Vo Thien Tam (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I230" s="65" t="n"/>
-      <c r="J230" s="65" t="n"/>
+      <c r="I230" s="59" t="n"/>
+      <c r="J230" s="59" t="n"/>
       <c r="K230" t="n">
         <v/>
       </c>
@@ -26698,8 +26879,8 @@
           <t>Vo Thien Tam (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I231" s="65" t="n"/>
-      <c r="J231" s="65" t="n"/>
+      <c r="I231" s="59" t="n"/>
+      <c r="J231" s="59" t="n"/>
       <c r="K231" t="n">
         <v/>
       </c>
@@ -26728,8 +26909,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I232" s="65" t="n"/>
-      <c r="J232" s="65" t="n"/>
+      <c r="I232" s="59" t="n"/>
+      <c r="J232" s="59" t="n"/>
       <c r="K232" t="n">
         <v/>
       </c>
@@ -26758,8 +26939,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I233" s="65" t="n"/>
-      <c r="J233" s="65" t="n"/>
+      <c r="I233" s="59" t="n"/>
+      <c r="J233" s="59" t="n"/>
       <c r="K233" t="n">
         <v/>
       </c>
@@ -26783,8 +26964,8 @@
           <t>Block belt 089/102 AL8 AL12 (belt 089/102 from Al12</t>
         </is>
       </c>
-      <c r="I234" s="65" t="n"/>
-      <c r="J234" s="65" t="n"/>
+      <c r="I234" s="59" t="n"/>
+      <c r="J234" s="59" t="n"/>
       <c r="K234" t="n">
         <v/>
       </c>
@@ -26813,8 +26994,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I235" s="65" t="n"/>
-      <c r="J235" s="65" t="n"/>
+      <c r="I235" s="59" t="n"/>
+      <c r="J235" s="59" t="n"/>
       <c r="K235" t="n">
         <v/>
       </c>
@@ -26843,8 +27024,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I236" s="65" t="n"/>
-      <c r="J236" s="65" t="n"/>
+      <c r="I236" s="59" t="n"/>
+      <c r="J236" s="59" t="n"/>
       <c r="K236" t="n">
         <v/>
       </c>
@@ -26873,8 +27054,8 @@
           <t>Lam Thai Nhat Toan (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I237" s="65" t="n"/>
-      <c r="J237" s="65" t="n"/>
+      <c r="I237" s="59" t="n"/>
+      <c r="J237" s="59" t="n"/>
       <c r="K237" t="n">
         <v/>
       </c>
@@ -26903,8 +27084,8 @@
           <t>Dao Nguyen Nhat Huynh (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I238" s="65" t="n"/>
-      <c r="J238" s="65" t="n"/>
+      <c r="I238" s="59" t="n"/>
+      <c r="J238" s="59" t="n"/>
       <c r="K238" t="n">
         <v/>
       </c>
@@ -26933,8 +27114,8 @@
           <t>Dao Nguyen Nhat Huynh (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I239" s="65" t="n"/>
-      <c r="J239" s="65" t="n"/>
+      <c r="I239" s="59" t="n"/>
+      <c r="J239" s="59" t="n"/>
       <c r="K239" t="n">
         <v/>
       </c>
@@ -26963,8 +27144,8 @@
           <t>Nguyen Tan Vi (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I240" s="65" t="n"/>
-      <c r="J240" s="65" t="n"/>
+      <c r="I240" s="59" t="n"/>
+      <c r="J240" s="59" t="n"/>
       <c r="K240" t="n">
         <v/>
       </c>
@@ -26993,8 +27174,8 @@
           <t>Nguyen Van Ry (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I241" s="65" t="n"/>
-      <c r="J241" s="65" t="n"/>
+      <c r="I241" s="59" t="n"/>
+      <c r="J241" s="59" t="n"/>
       <c r="K241" t="n">
         <v/>
       </c>
@@ -27023,8 +27204,8 @@
           <t>Lam Thai Nhat Toan (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I242" s="65" t="n"/>
-      <c r="J242" s="65" t="n"/>
+      <c r="I242" s="59" t="n"/>
+      <c r="J242" s="59" t="n"/>
       <c r="K242" t="n">
         <v/>
       </c>
@@ -27048,8 +27229,8 @@
           <t>Hướng dẫn phương pháp kiểm abnormal gap của belt tại Final</t>
         </is>
       </c>
-      <c r="I243" s="65" t="n"/>
-      <c r="J243" s="65" t="n"/>
+      <c r="I243" s="59" t="n"/>
+      <c r="J243" s="59" t="n"/>
       <c r="K243" t="n">
         <v/>
       </c>
@@ -27073,8 +27254,8 @@
           <t>Hướng dân phương pháp kiểm abnormal gap tại 2A/Final on AL16</t>
         </is>
       </c>
-      <c r="I244" s="65" t="n"/>
-      <c r="J244" s="65" t="n"/>
+      <c r="I244" s="59" t="n"/>
+      <c r="J244" s="59" t="n"/>
       <c r="K244" t="n">
         <v/>
       </c>
@@ -27103,8 +27284,8 @@
           <t>Nguyen Van Ry (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I245" s="65" t="n"/>
-      <c r="J245" s="65" t="n"/>
+      <c r="I245" s="59" t="n"/>
+      <c r="J245" s="59" t="n"/>
       <c r="K245" t="n">
         <v/>
       </c>
@@ -27133,8 +27314,8 @@
           <t>Nguyen Tan Vi (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I246" s="65" t="n"/>
-      <c r="J246" s="65" t="n"/>
+      <c r="I246" s="59" t="n"/>
+      <c r="J246" s="59" t="n"/>
       <c r="K246" t="n">
         <v/>
       </c>
@@ -27163,8 +27344,8 @@
           <t>Dao Nguyen Nhat Huynh (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I247" s="65" t="n"/>
-      <c r="J247" s="65" t="n"/>
+      <c r="I247" s="59" t="n"/>
+      <c r="J247" s="59" t="n"/>
       <c r="K247" t="n">
         <v/>
       </c>
@@ -27193,8 +27374,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I248" s="65" t="n"/>
-      <c r="J248" s="65" t="n"/>
+      <c r="I248" s="59" t="n"/>
+      <c r="J248" s="59" t="n"/>
       <c r="K248" t="n">
         <v/>
       </c>
@@ -27223,8 +27404,8 @@
           <t>Nguyen Van Ry (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I249" s="65" t="n"/>
-      <c r="J249" s="65" t="n"/>
+      <c r="I249" s="59" t="n"/>
+      <c r="J249" s="59" t="n"/>
       <c r="K249" t="n">
         <v/>
       </c>
@@ -27253,8 +27434,8 @@
           <t>Nguyen Van Ry (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I250" s="65" t="n"/>
-      <c r="J250" s="65" t="n"/>
+      <c r="I250" s="59" t="n"/>
+      <c r="J250" s="59" t="n"/>
       <c r="K250" t="n">
         <v/>
       </c>
@@ -27278,8 +27459,8 @@
           <t>Hướng dân phương pháp kiểm abnormal gap tại 2A/Final on AL16</t>
         </is>
       </c>
-      <c r="I251" s="65" t="n"/>
-      <c r="J251" s="65" t="n"/>
+      <c r="I251" s="59" t="n"/>
+      <c r="J251" s="59" t="n"/>
       <c r="K251" t="n">
         <v/>
       </c>
@@ -27303,8 +27484,8 @@
           <t>Hướng dẫn phương pháp kiểm abnormal gap của belt tại Final</t>
         </is>
       </c>
-      <c r="I252" s="65" t="n"/>
-      <c r="J252" s="65" t="n"/>
+      <c r="I252" s="59" t="n"/>
+      <c r="J252" s="59" t="n"/>
       <c r="K252" t="n">
         <v/>
       </c>
@@ -27333,8 +27514,8 @@
           <t>Trinh Phu Hien (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I253" s="65" t="n"/>
-      <c r="J253" s="65" t="n"/>
+      <c r="I253" s="59" t="n"/>
+      <c r="J253" s="59" t="n"/>
       <c r="K253" t="n">
         <v/>
       </c>
@@ -27363,8 +27544,8 @@
           <t>Trinh Phu Hien (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I254" s="65" t="n"/>
-      <c r="J254" s="65" t="n"/>
+      <c r="I254" s="59" t="n"/>
+      <c r="J254" s="59" t="n"/>
       <c r="K254" t="n">
         <v/>
       </c>
@@ -27393,8 +27574,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I255" s="65" t="n"/>
-      <c r="J255" s="65" t="n"/>
+      <c r="I255" s="59" t="n"/>
+      <c r="J255" s="59" t="n"/>
       <c r="K255" t="n">
         <v/>
       </c>
@@ -27423,8 +27604,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I256" s="65" t="n"/>
-      <c r="J256" s="65" t="n"/>
+      <c r="I256" s="59" t="n"/>
+      <c r="J256" s="59" t="n"/>
       <c r="K256" t="n">
         <v/>
       </c>
@@ -27453,8 +27634,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I257" s="65" t="n"/>
-      <c r="J257" s="65" t="n"/>
+      <c r="I257" s="59" t="n"/>
+      <c r="J257" s="59" t="n"/>
       <c r="K257" t="n">
         <v/>
       </c>
@@ -27483,8 +27664,8 @@
           <t>Dao Nguyen Nhat Huynh (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I258" s="65" t="n"/>
-      <c r="J258" s="65" t="n"/>
+      <c r="I258" s="59" t="n"/>
+      <c r="J258" s="59" t="n"/>
       <c r="K258" t="n">
         <v/>
       </c>
@@ -27513,8 +27694,8 @@
           <t>Dao Nguyen Nhat Huynh (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I259" s="65" t="n"/>
-      <c r="J259" s="65" t="n"/>
+      <c r="I259" s="59" t="n"/>
+      <c r="J259" s="59" t="n"/>
       <c r="K259" t="n">
         <v/>
       </c>
@@ -27543,8 +27724,8 @@
           <t>Phan Van Phuc (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I260" s="65" t="n"/>
-      <c r="J260" s="65" t="n"/>
+      <c r="I260" s="59" t="n"/>
+      <c r="J260" s="59" t="n"/>
       <c r="K260" t="n">
         <v/>
       </c>
@@ -27573,8 +27754,8 @@
           <t>Nguyen Vu Tran Dzuy (HcP/MFI1)</t>
         </is>
       </c>
-      <c r="I261" s="65" t="n"/>
-      <c r="J261" s="65" t="n"/>
+      <c r="I261" s="59" t="n"/>
+      <c r="J261" s="59" t="n"/>
       <c r="K261" t="n">
         <v/>
       </c>
@@ -27603,8 +27784,8 @@
           <t>Dao Nguyen Nhat Huynh (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I262" s="65" t="n"/>
-      <c r="J262" s="65" t="n"/>
+      <c r="I262" s="59" t="n"/>
+      <c r="J262" s="59" t="n"/>
       <c r="K262" t="n">
         <v/>
       </c>
@@ -27633,8 +27814,8 @@
           <t>Nguyen Van Ry (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I263" s="65" t="n"/>
-      <c r="J263" s="65" t="n"/>
+      <c r="I263" s="59" t="n"/>
+      <c r="J263" s="59" t="n"/>
       <c r="K263" t="n">
         <v/>
       </c>
@@ -27663,8 +27844,8 @@
           <t>Dao Nguyen Nhat Huynh (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I264" s="65" t="n"/>
-      <c r="J264" s="65" t="n"/>
+      <c r="I264" s="59" t="n"/>
+      <c r="J264" s="59" t="n"/>
       <c r="K264" t="n">
         <v/>
       </c>
@@ -27693,8 +27874,8 @@
           <t>Dao Nguyen Nhat Huynh (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I265" s="65" t="n"/>
-      <c r="J265" s="65" t="n"/>
+      <c r="I265" s="59" t="n"/>
+      <c r="J265" s="59" t="n"/>
       <c r="K265" t="n">
         <v/>
       </c>
@@ -27723,8 +27904,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I266" s="65" t="n"/>
-      <c r="J266" s="65" t="n"/>
+      <c r="I266" s="59" t="n"/>
+      <c r="J266" s="59" t="n"/>
       <c r="K266" t="n">
         <v/>
       </c>
@@ -27753,8 +27934,8 @@
           <t>Lam Thai Nhat Toan (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I267" s="65" t="n"/>
-      <c r="J267" s="65" t="n"/>
+      <c r="I267" s="59" t="n"/>
+      <c r="J267" s="59" t="n"/>
       <c r="K267" t="n">
         <v/>
       </c>
@@ -27783,8 +27964,8 @@
           <t>Trinh Phu Hien (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I268" s="65" t="n"/>
-      <c r="J268" s="65" t="n"/>
+      <c r="I268" s="59" t="n"/>
+      <c r="J268" s="59" t="n"/>
       <c r="K268" t="n">
         <v/>
       </c>
@@ -27813,8 +27994,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I269" s="65" t="n"/>
-      <c r="J269" s="65" t="n"/>
+      <c r="I269" s="59" t="n"/>
+      <c r="J269" s="59" t="n"/>
       <c r="K269" t="n">
         <v/>
       </c>
@@ -27843,8 +28024,8 @@
           <t>Nguyen Vu Tran Dzuy (HcP/MFI1)</t>
         </is>
       </c>
-      <c r="I270" s="65" t="n"/>
-      <c r="J270" s="65" t="n"/>
+      <c r="I270" s="59" t="n"/>
+      <c r="J270" s="59" t="n"/>
       <c r="K270" t="n">
         <v/>
       </c>
@@ -27873,8 +28054,8 @@
           <t>Vang Tien Thang (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I271" s="65" t="n"/>
-      <c r="J271" s="65" t="n"/>
+      <c r="I271" s="59" t="n"/>
+      <c r="J271" s="59" t="n"/>
       <c r="K271" t="n">
         <v/>
       </c>
@@ -27903,8 +28084,8 @@
           <t>Dao Nguyen Nhat Huynh (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I272" s="65" t="n"/>
-      <c r="J272" s="65" t="n"/>
+      <c r="I272" s="59" t="n"/>
+      <c r="J272" s="59" t="n"/>
       <c r="K272" t="n">
         <v/>
       </c>
@@ -27933,8 +28114,8 @@
           <t>Vo Thien Tam (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I273" s="65" t="n"/>
-      <c r="J273" s="65" t="n"/>
+      <c r="I273" s="59" t="n"/>
+      <c r="J273" s="59" t="n"/>
       <c r="K273" t="n">
         <v/>
       </c>
@@ -27963,8 +28144,8 @@
           <t>Vo Thien Tam (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I274" s="65" t="n"/>
-      <c r="J274" s="65" t="n"/>
+      <c r="I274" s="59" t="n"/>
+      <c r="J274" s="59" t="n"/>
       <c r="K274" t="n">
         <v/>
       </c>
@@ -27993,8 +28174,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I275" s="65" t="n"/>
-      <c r="J275" s="65" t="n"/>
+      <c r="I275" s="59" t="n"/>
+      <c r="J275" s="59" t="n"/>
       <c r="K275" t="n">
         <v/>
       </c>
@@ -28023,8 +28204,8 @@
           <t>Lam Thai Nhat Toan (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I276" s="65" t="n"/>
-      <c r="J276" s="65" t="n"/>
+      <c r="I276" s="59" t="n"/>
+      <c r="J276" s="59" t="n"/>
       <c r="K276" t="n">
         <v/>
       </c>
@@ -28048,8 +28229,8 @@
           <t>Instructrion for combine belt when line have technical issue</t>
         </is>
       </c>
-      <c r="I277" s="65" t="n"/>
-      <c r="J277" s="65" t="n"/>
+      <c r="I277" s="59" t="n"/>
+      <c r="J277" s="59" t="n"/>
       <c r="K277" t="n">
         <v/>
       </c>
@@ -28078,8 +28259,8 @@
           <t>Phan Van Phuc (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I278" s="65" t="n"/>
-      <c r="J278" s="65" t="n"/>
+      <c r="I278" s="59" t="n"/>
+      <c r="J278" s="59" t="n"/>
       <c r="K278" t="n">
         <v/>
       </c>
@@ -28108,8 +28289,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I279" s="65" t="n"/>
-      <c r="J279" s="65" t="n"/>
+      <c r="I279" s="59" t="n"/>
+      <c r="J279" s="59" t="n"/>
       <c r="K279" t="n">
         <v/>
       </c>
@@ -28138,8 +28319,8 @@
           <t>Dao Nguyen Nhat Huynh (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I280" s="65" t="n"/>
-      <c r="J280" s="65" t="n"/>
+      <c r="I280" s="59" t="n"/>
+      <c r="J280" s="59" t="n"/>
       <c r="K280" t="n">
         <v/>
       </c>
@@ -28168,8 +28349,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I281" s="65" t="n"/>
-      <c r="J281" s="65" t="n"/>
+      <c r="I281" s="59" t="n"/>
+      <c r="J281" s="59" t="n"/>
       <c r="K281" t="n">
         <v/>
       </c>
@@ -28198,8 +28379,8 @@
           <t>Vo Thien Tam (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I282" s="65" t="n"/>
-      <c r="J282" s="65" t="n"/>
+      <c r="I282" s="59" t="n"/>
+      <c r="J282" s="59" t="n"/>
       <c r="K282" t="n">
         <v/>
       </c>
@@ -28228,8 +28409,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I283" s="65" t="n"/>
-      <c r="J283" s="65" t="n"/>
+      <c r="I283" s="59" t="n"/>
+      <c r="J283" s="59" t="n"/>
       <c r="K283" t="n">
         <v/>
       </c>
@@ -28258,8 +28439,8 @@
           <t>Lam Thai Nhat Toan (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I284" s="65" t="n"/>
-      <c r="J284" s="65" t="n"/>
+      <c r="I284" s="59" t="n"/>
+      <c r="J284" s="59" t="n"/>
       <c r="K284" t="n">
         <v/>
       </c>
@@ -28288,8 +28469,8 @@
           <t>Nguyen Van Ry (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I285" s="65" t="n"/>
-      <c r="J285" s="65" t="n"/>
+      <c r="I285" s="59" t="n"/>
+      <c r="J285" s="59" t="n"/>
       <c r="K285" t="n">
         <v/>
       </c>
@@ -28313,8 +28494,8 @@
           <t>Instructrion for combine belt when line have technical issue</t>
         </is>
       </c>
-      <c r="I286" s="65" t="n"/>
-      <c r="J286" s="65" t="n"/>
+      <c r="I286" s="59" t="n"/>
+      <c r="J286" s="59" t="n"/>
       <c r="K286" t="n">
         <v/>
       </c>
@@ -28343,8 +28524,8 @@
           <t>Phan Van Phuc (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I287" s="65" t="n"/>
-      <c r="J287" s="65" t="n"/>
+      <c r="I287" s="59" t="n"/>
+      <c r="J287" s="59" t="n"/>
       <c r="K287" t="n">
         <v/>
       </c>
@@ -28373,8 +28554,8 @@
           <t>Vang Tien Thang (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I288" s="65" t="n"/>
-      <c r="J288" s="65" t="n"/>
+      <c r="I288" s="59" t="n"/>
+      <c r="J288" s="59" t="n"/>
       <c r="K288" t="n">
         <v/>
       </c>
@@ -28403,8 +28584,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I289" s="65" t="n"/>
-      <c r="J289" s="65" t="n"/>
+      <c r="I289" s="59" t="n"/>
+      <c r="J289" s="59" t="n"/>
       <c r="K289" t="n">
         <v/>
       </c>
@@ -28433,8 +28614,8 @@
           <t>Dao Nguyen Nhat Huynh (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I290" s="65" t="n"/>
-      <c r="J290" s="65" t="n"/>
+      <c r="I290" s="59" t="n"/>
+      <c r="J290" s="59" t="n"/>
       <c r="K290" t="n">
         <v/>
       </c>
@@ -28463,8 +28644,8 @@
           <t>Trinh Phu Hien (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I291" s="65" t="n"/>
-      <c r="J291" s="65" t="n"/>
+      <c r="I291" s="59" t="n"/>
+      <c r="J291" s="59" t="n"/>
       <c r="K291" t="n">
         <v/>
       </c>
@@ -28493,8 +28674,8 @@
           <t>Pham Quoc Dung (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I292" s="65" t="n"/>
-      <c r="J292" s="65" t="n"/>
+      <c r="I292" s="59" t="n"/>
+      <c r="J292" s="59" t="n"/>
       <c r="K292" t="n">
         <v/>
       </c>
@@ -28523,8 +28704,8 @@
           <t>Lam Thai Nhat Toan (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I293" s="65" t="n"/>
-      <c r="J293" s="65" t="n"/>
+      <c r="I293" s="59" t="n"/>
+      <c r="J293" s="59" t="n"/>
       <c r="K293" t="n">
         <v/>
       </c>
@@ -28553,8 +28734,8 @@
           <t>Dao Nguyen Nhat Huynh (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I294" s="65" t="n"/>
-      <c r="J294" s="65" t="n"/>
+      <c r="I294" s="59" t="n"/>
+      <c r="J294" s="59" t="n"/>
       <c r="K294" t="n">
         <v/>
       </c>
@@ -28583,8 +28764,8 @@
           <t>Lam Thai Nhat Toan (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I295" s="65" t="n"/>
-      <c r="J295" s="65" t="n"/>
+      <c r="I295" s="59" t="n"/>
+      <c r="J295" s="59" t="n"/>
       <c r="K295" t="n">
         <v/>
       </c>
@@ -28613,8 +28794,8 @@
           <t>Lam Thai Nhat Toan (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I296" s="65" t="n"/>
-      <c r="J296" s="65" t="n"/>
+      <c r="I296" s="59" t="n"/>
+      <c r="J296" s="59" t="n"/>
       <c r="K296" t="n">
         <v/>
       </c>
@@ -28643,8 +28824,8 @@
           <t>Lam Thai Nhat Toan (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I297" s="65" t="n"/>
-      <c r="J297" s="65" t="n"/>
+      <c r="I297" s="59" t="n"/>
+      <c r="J297" s="59" t="n"/>
       <c r="K297" t="n">
         <v/>
       </c>
@@ -28673,8 +28854,8 @@
           <t>Phan Van Phuc (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I298" s="65" t="n"/>
-      <c r="J298" s="65" t="n"/>
+      <c r="I298" s="59" t="n"/>
+      <c r="J298" s="59" t="n"/>
       <c r="K298" t="n">
         <v/>
       </c>
@@ -28703,8 +28884,8 @@
           <t>Nguyen Van Ry (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I299" s="65" t="n"/>
-      <c r="J299" s="65" t="n"/>
+      <c r="I299" s="59" t="n"/>
+      <c r="J299" s="59" t="n"/>
       <c r="K299" t="n">
         <v/>
       </c>
@@ -28733,8 +28914,8 @@
           <t>Tran Van Duyen (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I300" s="65" t="n"/>
-      <c r="J300" s="65" t="n"/>
+      <c r="I300" s="59" t="n"/>
+      <c r="J300" s="59" t="n"/>
       <c r="K300" t="n">
         <v/>
       </c>
@@ -28763,8 +28944,8 @@
           <t>Nguyen Van Ry (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I301" s="65" t="n"/>
-      <c r="J301" s="65" t="n"/>
+      <c r="I301" s="59" t="n"/>
+      <c r="J301" s="59" t="n"/>
       <c r="K301" t="n">
         <v/>
       </c>
@@ -28793,8 +28974,8 @@
           <t>Pham Quoc Dung (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I302" s="65" t="n"/>
-      <c r="J302" s="65" t="n"/>
+      <c r="I302" s="59" t="n"/>
+      <c r="J302" s="59" t="n"/>
       <c r="K302" t="n">
         <v/>
       </c>
@@ -28823,8 +29004,8 @@
           <t>Pham Quoc Dung (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I303" s="65" t="n"/>
-      <c r="J303" s="65" t="n"/>
+      <c r="I303" s="59" t="n"/>
+      <c r="J303" s="59" t="n"/>
       <c r="K303" t="n">
         <v/>
       </c>
@@ -28853,8 +29034,8 @@
           <t>Pham Quoc Dung (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I304" s="65" t="n"/>
-      <c r="J304" s="65" t="n"/>
+      <c r="I304" s="59" t="n"/>
+      <c r="J304" s="59" t="n"/>
       <c r="K304" t="n">
         <v/>
       </c>
@@ -28883,8 +29064,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I305" s="65" t="n"/>
-      <c r="J305" s="65" t="n"/>
+      <c r="I305" s="59" t="n"/>
+      <c r="J305" s="59" t="n"/>
       <c r="K305" t="n">
         <v/>
       </c>
@@ -28913,8 +29094,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I306" s="65" t="n"/>
-      <c r="J306" s="65" t="n"/>
+      <c r="I306" s="59" t="n"/>
+      <c r="J306" s="59" t="n"/>
       <c r="K306" t="n">
         <v/>
       </c>
@@ -28943,8 +29124,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I307" s="65" t="n"/>
-      <c r="J307" s="65" t="n"/>
+      <c r="I307" s="59" t="n"/>
+      <c r="J307" s="59" t="n"/>
       <c r="K307" t="n">
         <v/>
       </c>
@@ -28973,8 +29154,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I308" s="65" t="n"/>
-      <c r="J308" s="65" t="n"/>
+      <c r="I308" s="59" t="n"/>
+      <c r="J308" s="59" t="n"/>
       <c r="K308" t="n">
         <v/>
       </c>
@@ -29003,8 +29184,8 @@
           <t>Lam Thai Nhat Toan (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I309" s="65" t="n"/>
-      <c r="J309" s="65" t="n"/>
+      <c r="I309" s="59" t="n"/>
+      <c r="J309" s="59" t="n"/>
       <c r="K309" t="n">
         <v/>
       </c>
@@ -29033,8 +29214,8 @@
           <t>Vang Tien Thang (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I310" s="65" t="n"/>
-      <c r="J310" s="65" t="n"/>
+      <c r="I310" s="59" t="n"/>
+      <c r="J310" s="59" t="n"/>
       <c r="K310" t="n">
         <v/>
       </c>
@@ -29063,8 +29244,8 @@
           <t>Nguyen Van Ry (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I311" s="65" t="n"/>
-      <c r="J311" s="65" t="n"/>
+      <c r="I311" s="59" t="n"/>
+      <c r="J311" s="59" t="n"/>
       <c r="K311" t="n">
         <v/>
       </c>
@@ -29093,8 +29274,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I312" s="65" t="n"/>
-      <c r="J312" s="65" t="n"/>
+      <c r="I312" s="59" t="n"/>
+      <c r="J312" s="59" t="n"/>
       <c r="K312" t="n">
         <v/>
       </c>
@@ -29123,8 +29304,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I313" s="65" t="n"/>
-      <c r="J313" s="65" t="n"/>
+      <c r="I313" s="59" t="n"/>
+      <c r="J313" s="59" t="n"/>
       <c r="K313" t="n">
         <v/>
       </c>
@@ -29153,8 +29334,8 @@
           <t>Phan Van Phuc (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I314" s="65" t="n"/>
-      <c r="J314" s="65" t="n"/>
+      <c r="I314" s="59" t="n"/>
+      <c r="J314" s="59" t="n"/>
       <c r="K314" t="n">
         <v/>
       </c>
@@ -29183,8 +29364,8 @@
           <t>Phan Van Phuc (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I315" s="65" t="n"/>
-      <c r="J315" s="65" t="n"/>
+      <c r="I315" s="59" t="n"/>
+      <c r="J315" s="59" t="n"/>
       <c r="K315" t="n">
         <v/>
       </c>
@@ -29213,8 +29394,8 @@
           <t>Nguyen Van Ry (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I316" s="65" t="n"/>
-      <c r="J316" s="65" t="n"/>
+      <c r="I316" s="59" t="n"/>
+      <c r="J316" s="59" t="n"/>
       <c r="K316" t="n">
         <v/>
       </c>
@@ -29238,8 +29419,8 @@
           <t>Lam Thai Nhat Toan (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I317" s="65" t="n"/>
-      <c r="J317" s="65" t="n"/>
+      <c r="I317" s="59" t="n"/>
+      <c r="J317" s="59" t="n"/>
       <c r="K317" t="n">
         <v/>
       </c>
@@ -29268,8 +29449,8 @@
           <t>Lam Thai Nhat Toan (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I318" s="65" t="n"/>
-      <c r="J318" s="65" t="n"/>
+      <c r="I318" s="59" t="n"/>
+      <c r="J318" s="59" t="n"/>
       <c r="K318" t="n">
         <v/>
       </c>
@@ -29298,8 +29479,8 @@
           <t>Dao Nguyen Nhat Huynh (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I319" s="65" t="n"/>
-      <c r="J319" s="65" t="n"/>
+      <c r="I319" s="59" t="n"/>
+      <c r="J319" s="59" t="n"/>
       <c r="K319" t="n">
         <v/>
       </c>
@@ -29328,8 +29509,8 @@
           <t>Vo Thien Tam (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I320" s="65" t="n"/>
-      <c r="J320" s="65" t="n"/>
+      <c r="I320" s="59" t="n"/>
+      <c r="J320" s="59" t="n"/>
       <c r="K320" t="n">
         <v/>
       </c>
@@ -29353,8 +29534,8 @@
           <t>Vo Thien Tam (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I321" s="65" t="n"/>
-      <c r="J321" s="65" t="n"/>
+      <c r="I321" s="59" t="n"/>
+      <c r="J321" s="59" t="n"/>
       <c r="K321" t="n">
         <v/>
       </c>
@@ -29383,8 +29564,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I322" s="65" t="n"/>
-      <c r="J322" s="65" t="n"/>
+      <c r="I322" s="59" t="n"/>
+      <c r="J322" s="59" t="n"/>
       <c r="K322" t="n">
         <v/>
       </c>
@@ -29408,8 +29589,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I323" s="65" t="n"/>
-      <c r="J323" s="65" t="n"/>
+      <c r="I323" s="59" t="n"/>
+      <c r="J323" s="59" t="n"/>
       <c r="K323" t="n">
         <v/>
       </c>
@@ -29438,8 +29619,8 @@
           <t>Lam Thai Nhat Toan (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I324" s="65" t="n"/>
-      <c r="J324" s="65" t="n"/>
+      <c r="I324" s="59" t="n"/>
+      <c r="J324" s="59" t="n"/>
       <c r="K324" t="n">
         <v/>
       </c>
@@ -29468,8 +29649,8 @@
           <t>Nguyen Van Ry (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I325" s="65" t="n"/>
-      <c r="J325" s="65" t="n"/>
+      <c r="I325" s="59" t="n"/>
+      <c r="J325" s="59" t="n"/>
       <c r="K325" t="n">
         <v/>
       </c>
@@ -29493,8 +29674,8 @@
           <t>Nguyen Van Ry (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I326" s="65" t="n"/>
-      <c r="J326" s="65" t="n"/>
+      <c r="I326" s="59" t="n"/>
+      <c r="J326" s="59" t="n"/>
       <c r="K326" t="n">
         <v/>
       </c>
@@ -29518,8 +29699,8 @@
           <t>Nguyen Van Ry (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I327" s="65" t="n"/>
-      <c r="J327" s="65" t="n"/>
+      <c r="I327" s="59" t="n"/>
+      <c r="J327" s="59" t="n"/>
       <c r="K327" t="n">
         <v/>
       </c>
@@ -29543,8 +29724,8 @@
           <t>Nguyen Van Ry (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I328" s="65" t="n"/>
-      <c r="J328" s="65" t="n"/>
+      <c r="I328" s="59" t="n"/>
+      <c r="J328" s="59" t="n"/>
       <c r="K328" t="n">
         <v/>
       </c>
@@ -29573,8 +29754,8 @@
           <t>Nguyen Tran Do Anh Tuan (HcP/MFI2)</t>
         </is>
       </c>
-      <c r="I329" s="65" t="n"/>
-      <c r="J329" s="65" t="n"/>
+      <c r="I329" s="59" t="n"/>
+      <c r="J329" s="59" t="n"/>
       <c r="K329" t="n">
         <v/>
       </c>
@@ -29603,8 +29784,8 @@
           <t>Phan Van Phuc (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I330" s="65" t="n"/>
-      <c r="J330" s="65" t="n"/>
+      <c r="I330" s="59" t="n"/>
+      <c r="J330" s="59" t="n"/>
       <c r="K330" t="n">
         <v/>
       </c>
@@ -29633,8 +29814,8 @@
           <t>Van Tran Dang Khoa (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I331" s="65" t="n"/>
-      <c r="J331" s="65" t="n"/>
+      <c r="I331" s="59" t="n"/>
+      <c r="J331" s="59" t="n"/>
       <c r="K331" t="n">
         <v/>
       </c>
@@ -29658,8 +29839,8 @@
           <t>Phan Van Phuc (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I332" s="65" t="n"/>
-      <c r="J332" s="65" t="n"/>
+      <c r="I332" s="59" t="n"/>
+      <c r="J332" s="59" t="n"/>
       <c r="K332" t="n">
         <v/>
       </c>
@@ -29688,8 +29869,8 @@
           <t>Vang Tien Thang (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I333" s="65" t="n"/>
-      <c r="J333" s="65" t="n"/>
+      <c r="I333" s="59" t="n"/>
+      <c r="J333" s="59" t="n"/>
       <c r="K333" t="n">
         <v/>
       </c>
@@ -29718,8 +29899,8 @@
           <t>Tran Thi Thao (HcP/MFI1)</t>
         </is>
       </c>
-      <c r="I334" s="65" t="n"/>
-      <c r="J334" s="65" t="n"/>
+      <c r="I334" s="59" t="n"/>
+      <c r="J334" s="59" t="n"/>
       <c r="K334" t="n">
         <v/>
       </c>
@@ -29743,8 +29924,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I335" s="65" t="n"/>
-      <c r="J335" s="65" t="n"/>
+      <c r="I335" s="59" t="n"/>
+      <c r="J335" s="59" t="n"/>
       <c r="K335" t="n">
         <v/>
       </c>
@@ -29773,8 +29954,8 @@
           <t>Tran Van Duyen (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I336" s="65" t="n"/>
-      <c r="J336" s="65" t="n"/>
+      <c r="I336" s="59" t="n"/>
+      <c r="J336" s="59" t="n"/>
       <c r="K336" t="n">
         <v/>
       </c>
@@ -29803,8 +29984,8 @@
           <t>Tran Van Duyen (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I337" s="65" t="n"/>
-      <c r="J337" s="65" t="n"/>
+      <c r="I337" s="59" t="n"/>
+      <c r="J337" s="59" t="n"/>
       <c r="K337" t="n">
         <v/>
       </c>
@@ -29828,8 +30009,8 @@
           <t>Vo Thien Tam (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I338" s="65" t="n"/>
-      <c r="J338" s="65" t="n"/>
+      <c r="I338" s="59" t="n"/>
+      <c r="J338" s="59" t="n"/>
       <c r="K338" t="n">
         <v/>
       </c>
@@ -29858,8 +30039,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I339" s="65" t="n"/>
-      <c r="J339" s="65" t="n"/>
+      <c r="I339" s="59" t="n"/>
+      <c r="J339" s="59" t="n"/>
       <c r="K339" t="n">
         <v/>
       </c>
@@ -29888,8 +30069,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I340" s="65" t="n"/>
-      <c r="J340" s="65" t="n"/>
+      <c r="I340" s="59" t="n"/>
+      <c r="J340" s="59" t="n"/>
       <c r="K340" t="n">
         <v/>
       </c>
@@ -29913,8 +30094,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I341" s="65" t="n"/>
-      <c r="J341" s="65" t="n"/>
+      <c r="I341" s="59" t="n"/>
+      <c r="J341" s="59" t="n"/>
       <c r="K341" t="n">
         <v/>
       </c>
@@ -29938,8 +30119,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I342" s="65" t="n"/>
-      <c r="J342" s="65" t="n"/>
+      <c r="I342" s="59" t="n"/>
+      <c r="J342" s="59" t="n"/>
       <c r="K342" t="n">
         <v/>
       </c>
@@ -29968,8 +30149,8 @@
           <t>Lam Thai Nhat Toan (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I343" s="65" t="n"/>
-      <c r="J343" s="65" t="n"/>
+      <c r="I343" s="59" t="n"/>
+      <c r="J343" s="59" t="n"/>
       <c r="K343" t="n">
         <v/>
       </c>
@@ -29998,8 +30179,8 @@
           <t>Lam Thai Nhat Toan (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I344" s="65" t="n"/>
-      <c r="J344" s="65" t="n"/>
+      <c r="I344" s="59" t="n"/>
+      <c r="J344" s="59" t="n"/>
       <c r="K344" t="n">
         <v/>
       </c>
@@ -30023,8 +30204,8 @@
           <t>Phan Van Phuc (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I345" s="65" t="n"/>
-      <c r="J345" s="65" t="n"/>
+      <c r="I345" s="59" t="n"/>
+      <c r="J345" s="59" t="n"/>
       <c r="K345" t="n">
         <v/>
       </c>
@@ -30048,8 +30229,8 @@
           <t>Nguyen Van Ry (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I346" s="65" t="n"/>
-      <c r="J346" s="65" t="n"/>
+      <c r="I346" s="59" t="n"/>
+      <c r="J346" s="59" t="n"/>
       <c r="K346" t="n">
         <v/>
       </c>
@@ -30073,8 +30254,8 @@
           <t>Lam Thai Nhat Toan (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I347" s="65" t="n"/>
-      <c r="J347" s="65" t="n"/>
+      <c r="I347" s="59" t="n"/>
+      <c r="J347" s="59" t="n"/>
       <c r="K347" t="n">
         <v/>
       </c>
@@ -30098,8 +30279,8 @@
           <t>Lam Thai Nhat Toan (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I348" s="65" t="n"/>
-      <c r="J348" s="65" t="n"/>
+      <c r="I348" s="59" t="n"/>
+      <c r="J348" s="59" t="n"/>
       <c r="K348" t="n">
         <v/>
       </c>
@@ -30123,8 +30304,8 @@
           <t>Lam Thai Nhat Toan (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I349" s="65" t="n"/>
-      <c r="J349" s="65" t="n"/>
+      <c r="I349" s="59" t="n"/>
+      <c r="J349" s="59" t="n"/>
       <c r="K349" t="n">
         <v/>
       </c>
@@ -30153,8 +30334,8 @@
           <t>Vang Tien Thang (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I350" s="65" t="n"/>
-      <c r="J350" s="65" t="n"/>
+      <c r="I350" s="59" t="n"/>
+      <c r="J350" s="59" t="n"/>
       <c r="K350" t="n">
         <v/>
       </c>
@@ -30183,8 +30364,8 @@
           <t>Vang Tien Thang (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I351" s="65" t="n"/>
-      <c r="J351" s="65" t="n"/>
+      <c r="I351" s="59" t="n"/>
+      <c r="J351" s="59" t="n"/>
       <c r="K351" t="n">
         <v/>
       </c>
@@ -30213,8 +30394,8 @@
           <t>Van Tran Dang Khoa (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I352" s="65" t="n"/>
-      <c r="J352" s="65" t="n"/>
+      <c r="I352" s="59" t="n"/>
+      <c r="J352" s="59" t="n"/>
       <c r="K352" t="n">
         <v/>
       </c>
@@ -30238,8 +30419,8 @@
           <t>Vo Thien Tam (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I353" s="65" t="n"/>
-      <c r="J353" s="65" t="n"/>
+      <c r="I353" s="59" t="n"/>
+      <c r="J353" s="59" t="n"/>
       <c r="K353" t="n">
         <v/>
       </c>
@@ -30263,8 +30444,8 @@
           <t>Pham Quoc Dung (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I354" s="65" t="n"/>
-      <c r="J354" s="65" t="n"/>
+      <c r="I354" s="59" t="n"/>
+      <c r="J354" s="59" t="n"/>
       <c r="K354" t="n">
         <v/>
       </c>
@@ -30293,8 +30474,8 @@
           <t>Vo Thien Tam (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I355" s="65" t="n"/>
-      <c r="J355" s="65" t="n"/>
+      <c r="I355" s="59" t="n"/>
+      <c r="J355" s="59" t="n"/>
       <c r="K355" t="n">
         <v/>
       </c>
@@ -30323,8 +30504,8 @@
           <t>Vang Tien Thang (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I356" s="65" t="n"/>
-      <c r="J356" s="65" t="n"/>
+      <c r="I356" s="59" t="n"/>
+      <c r="J356" s="59" t="n"/>
       <c r="K356" t="n">
         <v/>
       </c>
@@ -30348,8 +30529,8 @@
           <t>Van Tran Dang Khoa (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I357" s="65" t="n"/>
-      <c r="J357" s="65" t="n"/>
+      <c r="I357" s="59" t="n"/>
+      <c r="J357" s="59" t="n"/>
       <c r="K357" t="n">
         <v/>
       </c>
@@ -30373,8 +30554,8 @@
           <t>Van Tran Dang Khoa (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I358" s="65" t="n"/>
-      <c r="J358" s="65" t="n"/>
+      <c r="I358" s="59" t="n"/>
+      <c r="J358" s="59" t="n"/>
       <c r="K358" t="n">
         <v/>
       </c>
@@ -30398,8 +30579,8 @@
           <t>Van Tran Dang Khoa (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I359" s="65" t="n"/>
-      <c r="J359" s="65" t="n"/>
+      <c r="I359" s="59" t="n"/>
+      <c r="J359" s="59" t="n"/>
       <c r="K359" t="n">
         <v/>
       </c>
@@ -30423,8 +30604,8 @@
           <t>Van Tran Dang Khoa (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I360" s="65" t="n"/>
-      <c r="J360" s="65" t="n"/>
+      <c r="I360" s="59" t="n"/>
+      <c r="J360" s="59" t="n"/>
       <c r="K360" t="n">
         <v/>
       </c>
@@ -30453,8 +30634,8 @@
           <t>Van Tran Dang Khoa (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I361" s="65" t="n"/>
-      <c r="J361" s="65" t="n"/>
+      <c r="I361" s="59" t="n"/>
+      <c r="J361" s="59" t="n"/>
       <c r="K361" t="n">
         <v/>
       </c>
@@ -30478,8 +30659,8 @@
           <t>Van Tran Dang Khoa (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I362" s="65" t="n"/>
-      <c r="J362" s="65" t="n"/>
+      <c r="I362" s="59" t="n"/>
+      <c r="J362" s="59" t="n"/>
       <c r="K362" t="n">
         <v/>
       </c>
@@ -30503,8 +30684,8 @@
           <t>Tran Si Huy (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I363" s="65" t="n"/>
-      <c r="J363" s="65" t="n"/>
+      <c r="I363" s="59" t="n"/>
+      <c r="J363" s="59" t="n"/>
       <c r="K363" t="n">
         <v/>
       </c>
@@ -30528,8 +30709,8 @@
           <t>Nguyen Vu Tran Dzuy (HcP/MFI1)</t>
         </is>
       </c>
-      <c r="I364" s="65" t="n"/>
-      <c r="J364" s="65" t="n"/>
+      <c r="I364" s="59" t="n"/>
+      <c r="J364" s="59" t="n"/>
       <c r="K364" t="n">
         <v/>
       </c>
@@ -30553,8 +30734,8 @@
           <t>Nguyen Vu Tran Dzuy (HcP/MFI1)</t>
         </is>
       </c>
-      <c r="I365" s="65" t="n"/>
-      <c r="J365" s="65" t="n"/>
+      <c r="I365" s="59" t="n"/>
+      <c r="J365" s="59" t="n"/>
       <c r="K365" t="n">
         <v/>
       </c>
@@ -30583,8 +30764,8 @@
           <t>Pham Quoc Dung (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I366" s="65" t="n"/>
-      <c r="J366" s="65" t="n"/>
+      <c r="I366" s="59" t="n"/>
+      <c r="J366" s="59" t="n"/>
       <c r="K366" t="n">
         <v/>
       </c>
@@ -30613,8 +30794,8 @@
           <t>Pham Quoc Dung (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I367" s="65" t="n"/>
-      <c r="J367" s="65" t="n"/>
+      <c r="I367" s="59" t="n"/>
+      <c r="J367" s="59" t="n"/>
       <c r="K367" t="n">
         <v/>
       </c>
@@ -30638,8 +30819,8 @@
           <t>Nguyen Vu Tran Dzuy (HcP/MFI1)</t>
         </is>
       </c>
-      <c r="I368" s="65" t="n"/>
-      <c r="J368" s="65" t="n"/>
+      <c r="I368" s="59" t="n"/>
+      <c r="J368" s="59" t="n"/>
       <c r="K368" t="n">
         <v/>
       </c>
@@ -30668,8 +30849,8 @@
           <t>Nguyen Vu Tran Dzuy (HcP/MFI1)</t>
         </is>
       </c>
-      <c r="I369" s="65" t="n"/>
-      <c r="J369" s="65" t="n"/>
+      <c r="I369" s="59" t="n"/>
+      <c r="J369" s="59" t="n"/>
       <c r="K369" t="n">
         <v/>
       </c>
@@ -30693,8 +30874,8 @@
           <t>Pham Quoc Dung (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I370" s="65" t="n"/>
-      <c r="J370" s="65" t="n"/>
+      <c r="I370" s="59" t="n"/>
+      <c r="J370" s="59" t="n"/>
       <c r="K370" t="n">
         <v/>
       </c>
@@ -30723,8 +30904,8 @@
           <t>Do Quoc Vinh (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I371" s="65" t="n"/>
-      <c r="J371" s="65" t="n"/>
+      <c r="I371" s="59" t="n"/>
+      <c r="J371" s="59" t="n"/>
       <c r="K371" t="n">
         <v/>
       </c>
@@ -30748,8 +30929,8 @@
           <t>Do Quoc Vinh (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I372" s="65" t="n"/>
-      <c r="J372" s="65" t="n"/>
+      <c r="I372" s="59" t="n"/>
+      <c r="J372" s="59" t="n"/>
       <c r="K372" t="n">
         <v/>
       </c>
@@ -30773,8 +30954,8 @@
           <t>Tran Van Duyen (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I373" s="65" t="n"/>
-      <c r="J373" s="65" t="n"/>
+      <c r="I373" s="59" t="n"/>
+      <c r="J373" s="59" t="n"/>
       <c r="K373" t="n">
         <v/>
       </c>
@@ -30803,8 +30984,8 @@
           <t>Pham Quoc Dung (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I374" s="65" t="n"/>
-      <c r="J374" s="65" t="n"/>
+      <c r="I374" s="59" t="n"/>
+      <c r="J374" s="59" t="n"/>
       <c r="K374" t="n">
         <v/>
       </c>
@@ -30828,8 +31009,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I375" s="65" t="n"/>
-      <c r="J375" s="65" t="n"/>
+      <c r="I375" s="59" t="n"/>
+      <c r="J375" s="59" t="n"/>
       <c r="K375" t="n">
         <v/>
       </c>
@@ -30853,8 +31034,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I376" s="65" t="n"/>
-      <c r="J376" s="65" t="n"/>
+      <c r="I376" s="59" t="n"/>
+      <c r="J376" s="59" t="n"/>
       <c r="K376" t="n">
         <v/>
       </c>
@@ -30883,8 +31064,8 @@
           <t>Pham Quoc Dung (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I377" s="65" t="n"/>
-      <c r="J377" s="65" t="n"/>
+      <c r="I377" s="59" t="n"/>
+      <c r="J377" s="59" t="n"/>
       <c r="K377" t="n">
         <v/>
       </c>
@@ -30908,8 +31089,8 @@
           <t>Vang Tien Thang (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I378" s="65" t="n"/>
-      <c r="J378" s="65" t="n"/>
+      <c r="I378" s="59" t="n"/>
+      <c r="J378" s="59" t="n"/>
       <c r="K378" t="n">
         <v/>
       </c>
@@ -30938,8 +31119,8 @@
           <t>Vang Tien Thang (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I379" s="65" t="n"/>
-      <c r="J379" s="65" t="n"/>
+      <c r="I379" s="59" t="n"/>
+      <c r="J379" s="59" t="n"/>
       <c r="K379" t="n">
         <v/>
       </c>
@@ -30968,8 +31149,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I380" s="65" t="n"/>
-      <c r="J380" s="65" t="n"/>
+      <c r="I380" s="59" t="n"/>
+      <c r="J380" s="59" t="n"/>
       <c r="K380" t="n">
         <v/>
       </c>
@@ -30993,8 +31174,8 @@
           <t>Nguyen Vu Tran Dzuy (HcP/MFI1)</t>
         </is>
       </c>
-      <c r="I381" s="65" t="n"/>
-      <c r="J381" s="65" t="n"/>
+      <c r="I381" s="59" t="n"/>
+      <c r="J381" s="59" t="n"/>
       <c r="K381" t="n">
         <v/>
       </c>
@@ -31018,8 +31199,8 @@
           <t>Nguyen Vu Tran Dzuy (HcP/MFI1)</t>
         </is>
       </c>
-      <c r="I382" s="65" t="n"/>
-      <c r="J382" s="65" t="n"/>
+      <c r="I382" s="59" t="n"/>
+      <c r="J382" s="59" t="n"/>
       <c r="K382" t="n">
         <v/>
       </c>
@@ -31043,8 +31224,8 @@
           <t>Pham Nguyen Thanh Tai (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I383" s="65" t="n"/>
-      <c r="J383" s="65" t="n"/>
+      <c r="I383" s="59" t="n"/>
+      <c r="J383" s="59" t="n"/>
       <c r="K383" t="n">
         <v/>
       </c>
@@ -31073,8 +31254,8 @@
           <t>Tran Van Duyen (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I384" s="65" t="n"/>
-      <c r="J384" s="65" t="n"/>
+      <c r="I384" s="59" t="n"/>
+      <c r="J384" s="59" t="n"/>
       <c r="K384" t="n">
         <v/>
       </c>
@@ -31098,8 +31279,8 @@
           <t>Nguyen Vu Tran Dzuy (HcP/MFI1)</t>
         </is>
       </c>
-      <c r="I385" s="65" t="n"/>
-      <c r="J385" s="65" t="n"/>
+      <c r="I385" s="59" t="n"/>
+      <c r="J385" s="59" t="n"/>
       <c r="K385" t="n">
         <v/>
       </c>
@@ -31123,8 +31304,8 @@
           <t>Van Tran Dang Khoa (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I386" s="65" t="n"/>
-      <c r="J386" s="65" t="n"/>
+      <c r="I386" s="59" t="n"/>
+      <c r="J386" s="59" t="n"/>
       <c r="K386" t="n">
         <v/>
       </c>
@@ -31148,8 +31329,8 @@
           <t>Van Tran Dang Khoa (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I387" s="65" t="n"/>
-      <c r="J387" s="65" t="n"/>
+      <c r="I387" s="59" t="n"/>
+      <c r="J387" s="59" t="n"/>
       <c r="K387" t="n">
         <v/>
       </c>
@@ -31173,8 +31354,8 @@
           <t>Van Tran Dang Khoa (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I388" s="65" t="n"/>
-      <c r="J388" s="65" t="n"/>
+      <c r="I388" s="59" t="n"/>
+      <c r="J388" s="59" t="n"/>
       <c r="K388" t="n">
         <v/>
       </c>
@@ -31198,8 +31379,8 @@
           <t>Lam Thai Nhat Toan (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I389" s="65" t="n"/>
-      <c r="J389" s="65" t="n"/>
+      <c r="I389" s="59" t="n"/>
+      <c r="J389" s="59" t="n"/>
       <c r="K389" t="n">
         <v/>
       </c>
@@ -31223,8 +31404,8 @@
           <t>Pham Quoc Dung (HcP/MFE3)</t>
         </is>
       </c>
-      <c r="I390" s="65" t="n"/>
-      <c r="J390" s="65" t="n"/>
+      <c r="I390" s="59" t="n"/>
+      <c r="J390" s="59" t="n"/>
       <c r="K390" t="n">
         <v/>
       </c>
@@ -31248,8 +31429,8 @@
           <t>Lam Thai Nhat Toan (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I391" s="65" t="n"/>
-      <c r="J391" s="65" t="n"/>
+      <c r="I391" s="59" t="n"/>
+      <c r="J391" s="59" t="n"/>
       <c r="K391" t="n">
         <v/>
       </c>
@@ -31273,8 +31454,8 @@
           <t>Tran Si Huy (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I392" s="65" t="n"/>
-      <c r="J392" s="65" t="n"/>
+      <c r="I392" s="59" t="n"/>
+      <c r="J392" s="59" t="n"/>
       <c r="K392" t="n">
         <v/>
       </c>
@@ -31298,8 +31479,8 @@
           <t>Tran Si Huy (HcP/MFI3)</t>
         </is>
       </c>
-      <c r="I393" s="65" t="n"/>
-      <c r="J393" s="65" t="n"/>
+      <c r="I393" s="59" t="n"/>
+      <c r="J393" s="59" t="n"/>
       <c r="K393" t="n">
         <v/>
       </c>
@@ -31328,7 +31509,7 @@
       <selection activeCell="J5" sqref="J5:J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.5" outlineLevelCol="0"/>
   <cols>
     <col width="24.81640625" customWidth="1" style="52" min="1" max="1"/>
     <col width="11.1796875" bestFit="1" customWidth="1" style="52" min="2" max="2"/>
